--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_23_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_23_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1147258.049919832</v>
+        <v>1069611.531591466</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16392615.83457438</v>
+        <v>16392615.83457437</v>
       </c>
     </row>
     <row r="9">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>42.7323645795046</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>42.73236457950449</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="S11" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1457,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="F12" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>42.7323645795046</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>43.96174265608267</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,28 +1572,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.65621884003237</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="T13" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>15.07614573947212</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>47.28602221804567</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>42.73236457950449</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>42.7323645795046</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>42.7323645795046</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
     </row>
     <row r="16">
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>42.7323645795046</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>42.7323645795046</v>
       </c>
       <c r="E17" t="n">
-        <v>42.73236457950452</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
     </row>
     <row r="18">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>42.73236457950452</v>
+        <v>42.7323645795046</v>
       </c>
       <c r="S18" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>42.7323645795046</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2046,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>27.65621884003237</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="V19" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>15.07614573947215</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.73236457950453</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>42.7323645795046</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>48.41420986353356</v>
+        <v>42.7323645795046</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>42.83355501059464</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>42.7323645795046</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.73236457950452</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="U22" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,49 +2326,49 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8.775248731120021</v>
+      </c>
+      <c r="I23" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="F23" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>52.02582218557539</v>
+      </c>
+      <c r="S23" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="G23" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="H23" t="n">
-        <v>60.80107091669541</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>60.80107091669541</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>12.38686105316186</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="W24" t="n">
         <v>69.02937206709291</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.96174265608267</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.83932826061276</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R25" t="n">
-        <v>69.02937206709291</v>
+        <v>33.14485207666303</v>
       </c>
       <c r="S25" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.8010709166954</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="U26" t="n">
-        <v>69.02937206709291</v>
+        <v>60.8010709166954</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2645,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>12.38686105316185</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>48.41420986353356</v>
       </c>
       <c r="S27" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>12.38686105316185</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>69.02937206709291</v>
@@ -2715,73 +2715,73 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="D28" t="n">
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>43.96174265608267</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>16.83932826061276</v>
+      </c>
+      <c r="T28" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="E28" t="n">
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="F28" t="n">
-        <v>60.80107091669541</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="T29" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>69.02937206709291</v>
+        <v>8.775248731120024</v>
       </c>
       <c r="X29" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>60.80107091669541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,64 +2870,64 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
         <v>60.8010709166954</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="D30" t="n">
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2967,55 +2967,55 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="I31" t="n">
+      <c r="V31" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="J31" t="n">
-        <v>33.14485207666304</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>27.65621884003237</v>
-      </c>
-      <c r="R31" t="n">
+      <c r="W31" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>60.80107091669541</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="C32" t="n">
-        <v>8.775248731120024</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="V32" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>8.775248731120021</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>60.8010709166954</v>
+      </c>
+      <c r="U33" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="T33" t="n">
+      <c r="V33" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>12.38686105316185</v>
       </c>
       <c r="W33" t="n">
         <v>69.02937206709291</v>
@@ -3186,76 +3186,76 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>27.65621884003237</v>
-      </c>
-      <c r="R34" t="n">
-        <v>33.14485207666303</v>
-      </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>60.8010709166954</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>48.51540029462365</v>
       </c>
       <c r="S35" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3347,70 +3347,70 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>42.73236457950448</v>
+      </c>
+      <c r="I36" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="D36" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="E36" t="n">
-        <v>42.73236457950448</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3438,58 +3438,58 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="U37" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="V37" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,26 +3505,26 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>42.73236457950449</v>
+      </c>
+      <c r="H38" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>42.73236457950449</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>48.51540029462365</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="U39" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="V39" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3663,28 +3663,28 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3739,76 +3739,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="E41" t="n">
+      <c r="U41" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>42.73236457950449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3875,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3942,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>27.65621884003237</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="T43" t="n">
-        <v>15.07614573947211</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="U43" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="C44" t="n">
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>42.73236457950449</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4112,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="V45" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>48.51540029462365</v>
@@ -4137,73 +4137,73 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>42.73236457950448</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="D46" t="n">
-        <v>42.73236457950449</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.881232023569891</v>
+        <v>47.04523664933213</v>
       </c>
       <c r="C11" t="n">
-        <v>3.881232023569891</v>
+        <v>47.04523664933213</v>
       </c>
       <c r="D11" t="n">
-        <v>3.881232023569891</v>
+        <v>47.04523664933213</v>
       </c>
       <c r="E11" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="F11" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="G11" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="H11" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="I11" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="J11" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="K11" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="L11" t="n">
-        <v>13.8171863711063</v>
+        <v>51.91147831524741</v>
       </c>
       <c r="M11" t="n">
-        <v>56.54228748028625</v>
+        <v>98.00110859513995</v>
       </c>
       <c r="N11" t="n">
-        <v>104.5725337719636</v>
+        <v>146.0313548868175</v>
       </c>
       <c r="O11" t="n">
-        <v>146.0313548868172</v>
+        <v>194.061601178495</v>
       </c>
       <c r="P11" t="n">
-        <v>146.0313548868172</v>
+        <v>194.061601178495</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.0616011784946</v>
+        <v>194.061601178495</v>
       </c>
       <c r="R11" t="n">
-        <v>150.8975965527324</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="S11" t="n">
-        <v>101.8921417096783</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="T11" t="n">
-        <v>52.88668686662407</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="U11" t="n">
-        <v>3.881232023569891</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="V11" t="n">
-        <v>3.881232023569891</v>
+        <v>47.04523664933213</v>
       </c>
       <c r="W11" t="n">
-        <v>3.881232023569891</v>
+        <v>47.04523664933213</v>
       </c>
       <c r="X11" t="n">
-        <v>3.881232023569891</v>
+        <v>47.04523664933213</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.881232023569891</v>
+        <v>47.04523664933213</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="C12" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="D12" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="E12" t="n">
-        <v>145.0561463354404</v>
+        <v>47.04523664933213</v>
       </c>
       <c r="F12" t="n">
-        <v>96.05069149238618</v>
+        <v>47.04523664933213</v>
       </c>
       <c r="G12" t="n">
-        <v>47.045236649332</v>
+        <v>47.04523664933213</v>
       </c>
       <c r="H12" t="n">
-        <v>3.881232023569891</v>
+        <v>47.04523664933213</v>
       </c>
       <c r="I12" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="J12" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="K12" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="L12" t="n">
-        <v>45.85568787732696</v>
+        <v>45.85568787732697</v>
       </c>
       <c r="M12" t="n">
-        <v>93.88593416900437</v>
+        <v>73.08520855893107</v>
       </c>
       <c r="N12" t="n">
-        <v>141.9161804606818</v>
+        <v>121.1154548506086</v>
       </c>
       <c r="O12" t="n">
-        <v>169.1457011422857</v>
+        <v>169.1457011422861</v>
       </c>
       <c r="P12" t="n">
-        <v>194.0616011784946</v>
+        <v>194.061601178495</v>
       </c>
       <c r="Q12" t="n">
-        <v>194.0616011784946</v>
+        <v>194.061601178495</v>
       </c>
       <c r="R12" t="n">
-        <v>194.0616011784946</v>
+        <v>194.061601178495</v>
       </c>
       <c r="S12" t="n">
-        <v>194.0616011784946</v>
+        <v>194.061601178495</v>
       </c>
       <c r="T12" t="n">
-        <v>194.0616011784946</v>
+        <v>194.061601178495</v>
       </c>
       <c r="U12" t="n">
-        <v>194.0616011784946</v>
+        <v>194.061601178495</v>
       </c>
       <c r="V12" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="W12" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="X12" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238642</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.881232023569891</v>
+        <v>48.28703268627967</v>
       </c>
       <c r="C13" t="n">
-        <v>3.881232023569891</v>
+        <v>48.28703268627967</v>
       </c>
       <c r="D13" t="n">
-        <v>3.881232023569891</v>
+        <v>48.28703268627967</v>
       </c>
       <c r="E13" t="n">
-        <v>3.881232023569891</v>
+        <v>48.28703268627967</v>
       </c>
       <c r="F13" t="n">
-        <v>3.881232023569891</v>
+        <v>48.28703268627967</v>
       </c>
       <c r="G13" t="n">
-        <v>3.881232023569891</v>
+        <v>48.28703268627967</v>
       </c>
       <c r="H13" t="n">
-        <v>3.881232023569891</v>
+        <v>48.28703268627967</v>
       </c>
       <c r="I13" t="n">
-        <v>3.881232023569891</v>
+        <v>48.28703268627967</v>
       </c>
       <c r="J13" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="K13" t="n">
-        <v>51.91147831524729</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="L13" t="n">
-        <v>99.94172460692469</v>
+        <v>49.97086230346245</v>
       </c>
       <c r="M13" t="n">
-        <v>147.9719708986021</v>
+        <v>98.00110859513995</v>
       </c>
       <c r="N13" t="n">
-        <v>194.0616011784946</v>
+        <v>146.0313548868175</v>
       </c>
       <c r="O13" t="n">
-        <v>194.0616011784946</v>
+        <v>194.061601178495</v>
       </c>
       <c r="P13" t="n">
-        <v>194.0616011784946</v>
+        <v>194.061601178495</v>
       </c>
       <c r="Q13" t="n">
-        <v>166.1260265926033</v>
+        <v>194.061601178495</v>
       </c>
       <c r="R13" t="n">
-        <v>117.1205717495491</v>
+        <v>194.061601178495</v>
       </c>
       <c r="S13" t="n">
-        <v>68.1151169064949</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="T13" t="n">
-        <v>19.10966206344072</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="U13" t="n">
-        <v>3.881232023569891</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="V13" t="n">
-        <v>3.881232023569891</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="W13" t="n">
-        <v>3.881232023569891</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="X13" t="n">
-        <v>3.881232023569891</v>
+        <v>48.28703268627967</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.881232023569891</v>
+        <v>48.28703268627967</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>150.8975965527324</v>
+        <v>101.8921417096785</v>
       </c>
       <c r="C14" t="n">
-        <v>101.8921417096783</v>
+        <v>101.8921417096785</v>
       </c>
       <c r="D14" t="n">
-        <v>52.88668686662407</v>
+        <v>101.8921417096785</v>
       </c>
       <c r="E14" t="n">
-        <v>52.88668686662407</v>
+        <v>101.8921417096785</v>
       </c>
       <c r="F14" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662419</v>
       </c>
       <c r="G14" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662419</v>
       </c>
       <c r="H14" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="I14" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="J14" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="K14" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="L14" t="n">
-        <v>51.91147831524729</v>
+        <v>51.91147831524741</v>
       </c>
       <c r="M14" t="n">
-        <v>94.63657942442724</v>
+        <v>94.63657942442735</v>
       </c>
       <c r="N14" t="n">
-        <v>142.6668257161047</v>
+        <v>142.6668257161049</v>
       </c>
       <c r="O14" t="n">
-        <v>174.6851640644506</v>
+        <v>190.6970720077824</v>
       </c>
       <c r="P14" t="n">
-        <v>194.0616011784946</v>
+        <v>194.061601178495</v>
       </c>
       <c r="Q14" t="n">
-        <v>194.0616011784946</v>
+        <v>194.061601178495</v>
       </c>
       <c r="R14" t="n">
-        <v>194.0616011784946</v>
+        <v>194.061601178495</v>
       </c>
       <c r="S14" t="n">
-        <v>150.8975965527324</v>
+        <v>194.061601178495</v>
       </c>
       <c r="T14" t="n">
-        <v>150.8975965527324</v>
+        <v>194.061601178495</v>
       </c>
       <c r="U14" t="n">
-        <v>150.8975965527324</v>
+        <v>194.061601178495</v>
       </c>
       <c r="V14" t="n">
-        <v>150.8975965527324</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="W14" t="n">
-        <v>150.8975965527324</v>
+        <v>101.8921417096785</v>
       </c>
       <c r="X14" t="n">
-        <v>150.8975965527324</v>
+        <v>101.8921417096785</v>
       </c>
       <c r="Y14" t="n">
-        <v>150.8975965527324</v>
+        <v>101.8921417096785</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>194.0616011784946</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="C15" t="n">
-        <v>145.0561463354404</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="D15" t="n">
-        <v>145.0561463354404</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="E15" t="n">
-        <v>145.0561463354404</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="F15" t="n">
-        <v>96.05069149238618</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="G15" t="n">
-        <v>47.045236649332</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="H15" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="I15" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="J15" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="K15" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="L15" t="n">
-        <v>25.05496226725347</v>
+        <v>45.85568787732697</v>
       </c>
       <c r="M15" t="n">
-        <v>73.08520855893087</v>
+        <v>93.88593416900449</v>
       </c>
       <c r="N15" t="n">
-        <v>121.1154548506083</v>
+        <v>141.916180460682</v>
       </c>
       <c r="O15" t="n">
-        <v>169.1457011422857</v>
+        <v>189.9464267523595</v>
       </c>
       <c r="P15" t="n">
-        <v>194.0616011784946</v>
+        <v>194.061601178495</v>
       </c>
       <c r="Q15" t="n">
-        <v>194.0616011784946</v>
+        <v>194.061601178495</v>
       </c>
       <c r="R15" t="n">
-        <v>194.0616011784946</v>
+        <v>194.061601178495</v>
       </c>
       <c r="S15" t="n">
-        <v>194.0616011784946</v>
+        <v>194.061601178495</v>
       </c>
       <c r="T15" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="U15" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="V15" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="W15" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="X15" t="n">
-        <v>194.0616011784946</v>
+        <v>52.88668686662419</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.0616011784946</v>
+        <v>3.8812320235699</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.0616011784946</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="C16" t="n">
-        <v>194.0616011784946</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="D16" t="n">
-        <v>194.0616011784946</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="E16" t="n">
-        <v>194.0616011784946</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="F16" t="n">
-        <v>194.0616011784946</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="G16" t="n">
-        <v>145.0561463354404</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="H16" t="n">
-        <v>96.05069149238618</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="I16" t="n">
-        <v>47.045236649332</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="J16" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="K16" t="n">
-        <v>3.881232023569891</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="L16" t="n">
-        <v>3.881232023569891</v>
+        <v>49.97086230346245</v>
       </c>
       <c r="M16" t="n">
-        <v>51.91147831524729</v>
+        <v>98.00110859513995</v>
       </c>
       <c r="N16" t="n">
-        <v>99.94172460692469</v>
+        <v>146.0313548868175</v>
       </c>
       <c r="O16" t="n">
-        <v>147.9719708986021</v>
+        <v>194.061601178495</v>
       </c>
       <c r="P16" t="n">
-        <v>194.0616011784946</v>
+        <v>194.061601178495</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.0616011784946</v>
+        <v>194.061601178495</v>
       </c>
       <c r="R16" t="n">
-        <v>194.0616011784946</v>
+        <v>194.061601178495</v>
       </c>
       <c r="S16" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="T16" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="U16" t="n">
-        <v>194.0616011784946</v>
+        <v>101.8921417096785</v>
       </c>
       <c r="V16" t="n">
-        <v>194.0616011784946</v>
+        <v>52.88668686662419</v>
       </c>
       <c r="W16" t="n">
-        <v>194.0616011784946</v>
+        <v>52.88668686662419</v>
       </c>
       <c r="X16" t="n">
-        <v>194.0616011784946</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.0616011784946</v>
+        <v>3.8812320235699</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>194.0616011784947</v>
+        <v>47.04523664933213</v>
       </c>
       <c r="C17" t="n">
-        <v>194.0616011784947</v>
+        <v>47.04523664933213</v>
       </c>
       <c r="D17" t="n">
-        <v>194.0616011784947</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="E17" t="n">
-        <v>150.8975965527325</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="F17" t="n">
-        <v>101.8921417096783</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="G17" t="n">
-        <v>101.8921417096783</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="H17" t="n">
-        <v>52.8866868666241</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="I17" t="n">
-        <v>3.881232023569893</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="J17" t="n">
-        <v>3.881232023569893</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="K17" t="n">
-        <v>51.91147831524732</v>
+        <v>51.91147831524741</v>
       </c>
       <c r="L17" t="n">
-        <v>71.28791542929127</v>
+        <v>61.84743266278382</v>
       </c>
       <c r="M17" t="n">
-        <v>114.0130165384712</v>
+        <v>104.5725337719638</v>
       </c>
       <c r="N17" t="n">
-        <v>162.0432628301486</v>
+        <v>152.6027800636412</v>
       </c>
       <c r="O17" t="n">
-        <v>194.0616011784947</v>
+        <v>194.061601178495</v>
       </c>
       <c r="P17" t="n">
-        <v>194.0616011784947</v>
+        <v>194.061601178495</v>
       </c>
       <c r="Q17" t="n">
-        <v>194.0616011784947</v>
+        <v>194.061601178495</v>
       </c>
       <c r="R17" t="n">
-        <v>194.0616011784947</v>
+        <v>194.061601178495</v>
       </c>
       <c r="S17" t="n">
-        <v>194.0616011784947</v>
+        <v>194.061601178495</v>
       </c>
       <c r="T17" t="n">
-        <v>194.0616011784947</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="U17" t="n">
-        <v>194.0616011784947</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="V17" t="n">
-        <v>194.0616011784947</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="W17" t="n">
-        <v>194.0616011784947</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="X17" t="n">
-        <v>194.0616011784947</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="Y17" t="n">
-        <v>194.0616011784947</v>
+        <v>47.04523664933213</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>52.8866868666241</v>
+        <v>52.88668686662419</v>
       </c>
       <c r="C18" t="n">
-        <v>52.8866868666241</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="D18" t="n">
-        <v>52.8866868666241</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="E18" t="n">
-        <v>52.8866868666241</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="F18" t="n">
-        <v>52.8866868666241</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="G18" t="n">
-        <v>52.8866868666241</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="H18" t="n">
-        <v>52.8866868666241</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="I18" t="n">
-        <v>3.881232023569893</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="J18" t="n">
-        <v>3.881232023569893</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="K18" t="n">
-        <v>3.881232023569893</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="L18" t="n">
-        <v>25.0549622672535</v>
+        <v>45.85568787732697</v>
       </c>
       <c r="M18" t="n">
-        <v>73.08520855893093</v>
+        <v>93.88593416900449</v>
       </c>
       <c r="N18" t="n">
-        <v>121.1154548506084</v>
+        <v>121.1154548506086</v>
       </c>
       <c r="O18" t="n">
-        <v>169.1457011422858</v>
+        <v>169.1457011422861</v>
       </c>
       <c r="P18" t="n">
-        <v>194.0616011784947</v>
+        <v>194.061601178495</v>
       </c>
       <c r="Q18" t="n">
-        <v>194.0616011784947</v>
+        <v>194.061601178495</v>
       </c>
       <c r="R18" t="n">
-        <v>150.8975965527325</v>
+        <v>150.8975965527328</v>
       </c>
       <c r="S18" t="n">
-        <v>101.8921417096783</v>
+        <v>150.8975965527328</v>
       </c>
       <c r="T18" t="n">
-        <v>52.8866868666241</v>
+        <v>101.8921417096785</v>
       </c>
       <c r="U18" t="n">
-        <v>52.8866868666241</v>
+        <v>101.8921417096785</v>
       </c>
       <c r="V18" t="n">
-        <v>52.8866868666241</v>
+        <v>101.8921417096785</v>
       </c>
       <c r="W18" t="n">
-        <v>52.8866868666241</v>
+        <v>101.8921417096785</v>
       </c>
       <c r="X18" t="n">
-        <v>52.8866868666241</v>
+        <v>101.8921417096785</v>
       </c>
       <c r="Y18" t="n">
-        <v>52.8866868666241</v>
+        <v>101.8921417096785</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.881232023569893</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="C19" t="n">
-        <v>3.881232023569893</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="D19" t="n">
-        <v>3.881232023569893</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="E19" t="n">
-        <v>3.881232023569893</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="F19" t="n">
-        <v>3.881232023569893</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="G19" t="n">
-        <v>3.881232023569893</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="H19" t="n">
-        <v>3.881232023569893</v>
+        <v>47.04523664933213</v>
       </c>
       <c r="I19" t="n">
-        <v>3.881232023569893</v>
+        <v>47.04523664933213</v>
       </c>
       <c r="J19" t="n">
-        <v>3.881232023569893</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="K19" t="n">
-        <v>3.881232023569893</v>
+        <v>51.91147831524741</v>
       </c>
       <c r="L19" t="n">
-        <v>3.881232023569893</v>
+        <v>99.94172460692491</v>
       </c>
       <c r="M19" t="n">
-        <v>51.91147831524732</v>
+        <v>147.9719708986024</v>
       </c>
       <c r="N19" t="n">
-        <v>99.94172460692475</v>
+        <v>194.061601178495</v>
       </c>
       <c r="O19" t="n">
-        <v>146.0313548868172</v>
+        <v>194.061601178495</v>
       </c>
       <c r="P19" t="n">
-        <v>194.0616011784947</v>
+        <v>194.061601178495</v>
       </c>
       <c r="Q19" t="n">
-        <v>166.1260265926034</v>
+        <v>194.061601178495</v>
       </c>
       <c r="R19" t="n">
-        <v>166.1260265926034</v>
+        <v>194.061601178495</v>
       </c>
       <c r="S19" t="n">
-        <v>117.1205717495492</v>
+        <v>194.061601178495</v>
       </c>
       <c r="T19" t="n">
-        <v>117.1205717495492</v>
+        <v>194.061601178495</v>
       </c>
       <c r="U19" t="n">
-        <v>68.11511690649496</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="V19" t="n">
-        <v>19.10966206344075</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="W19" t="n">
-        <v>3.881232023569893</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="X19" t="n">
-        <v>3.881232023569893</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.881232023569893</v>
+        <v>145.0561463354407</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>52.8866868666241</v>
+        <v>52.88668686662419</v>
       </c>
       <c r="C20" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662419</v>
       </c>
       <c r="D20" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662419</v>
       </c>
       <c r="E20" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662419</v>
       </c>
       <c r="F20" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662419</v>
       </c>
       <c r="G20" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662419</v>
       </c>
       <c r="H20" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662419</v>
       </c>
       <c r="I20" t="n">
-        <v>3.881232023569893</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="J20" t="n">
-        <v>51.91147831524732</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="K20" t="n">
-        <v>51.91147831524732</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="L20" t="n">
-        <v>61.84743266278373</v>
+        <v>49.97086230346245</v>
       </c>
       <c r="M20" t="n">
-        <v>104.5725337719637</v>
+        <v>98.00110859513995</v>
       </c>
       <c r="N20" t="n">
-        <v>152.6027800636411</v>
+        <v>146.0313548868175</v>
       </c>
       <c r="O20" t="n">
-        <v>184.6211184119871</v>
+        <v>194.061601178495</v>
       </c>
       <c r="P20" t="n">
-        <v>184.6211184119871</v>
+        <v>194.061601178495</v>
       </c>
       <c r="Q20" t="n">
-        <v>194.0616011784947</v>
+        <v>194.061601178495</v>
       </c>
       <c r="R20" t="n">
-        <v>194.0616011784947</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="S20" t="n">
-        <v>194.0616011784947</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="T20" t="n">
-        <v>194.0616011784947</v>
+        <v>52.88668686662419</v>
       </c>
       <c r="U20" t="n">
-        <v>194.0616011784947</v>
+        <v>52.88668686662419</v>
       </c>
       <c r="V20" t="n">
-        <v>194.0616011784947</v>
+        <v>52.88668686662419</v>
       </c>
       <c r="W20" t="n">
-        <v>194.0616011784947</v>
+        <v>52.88668686662419</v>
       </c>
       <c r="X20" t="n">
-        <v>145.0561463354405</v>
+        <v>52.88668686662419</v>
       </c>
       <c r="Y20" t="n">
-        <v>96.05069149238626</v>
+        <v>52.88668686662419</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>52.8866868666241</v>
+        <v>52.88668686662419</v>
       </c>
       <c r="C21" t="n">
-        <v>52.8866868666241</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="D21" t="n">
-        <v>52.8866868666241</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="E21" t="n">
-        <v>52.8866868666241</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="F21" t="n">
-        <v>52.8866868666241</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="G21" t="n">
-        <v>52.8866868666241</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="H21" t="n">
-        <v>52.8866868666241</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="I21" t="n">
-        <v>3.881232023569893</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="J21" t="n">
-        <v>3.881232023569893</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="K21" t="n">
-        <v>3.881232023569893</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="L21" t="n">
-        <v>45.85568787732696</v>
+        <v>45.85568787732697</v>
       </c>
       <c r="M21" t="n">
-        <v>93.8859341690044</v>
+        <v>93.88593416900449</v>
       </c>
       <c r="N21" t="n">
-        <v>141.9161804606818</v>
+        <v>121.1154548506086</v>
       </c>
       <c r="O21" t="n">
-        <v>169.1457011422858</v>
+        <v>169.1457011422861</v>
       </c>
       <c r="P21" t="n">
-        <v>194.0616011784947</v>
+        <v>194.061601178495</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.0616011784947</v>
+        <v>194.061601178495</v>
       </c>
       <c r="R21" t="n">
-        <v>145.1583588920971</v>
+        <v>150.8975965527328</v>
       </c>
       <c r="S21" t="n">
-        <v>145.1583588920971</v>
+        <v>150.8975965527328</v>
       </c>
       <c r="T21" t="n">
-        <v>96.15290404904293</v>
+        <v>150.8975965527328</v>
       </c>
       <c r="U21" t="n">
-        <v>96.15290404904293</v>
+        <v>150.8975965527328</v>
       </c>
       <c r="V21" t="n">
-        <v>96.15290404904293</v>
+        <v>150.8975965527328</v>
       </c>
       <c r="W21" t="n">
-        <v>96.15290404904293</v>
+        <v>150.8975965527328</v>
       </c>
       <c r="X21" t="n">
-        <v>52.8866868666241</v>
+        <v>150.8975965527328</v>
       </c>
       <c r="Y21" t="n">
-        <v>52.8866868666241</v>
+        <v>101.8921417096785</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.881232023569893</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="C22" t="n">
-        <v>3.881232023569893</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="D22" t="n">
-        <v>3.881232023569893</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="E22" t="n">
-        <v>3.881232023569893</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="F22" t="n">
-        <v>3.881232023569893</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="G22" t="n">
-        <v>3.881232023569893</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="H22" t="n">
-        <v>3.881232023569893</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="I22" t="n">
-        <v>3.881232023569893</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="J22" t="n">
-        <v>3.881232023569893</v>
+        <v>3.8812320235699</v>
       </c>
       <c r="K22" t="n">
-        <v>51.91147831524732</v>
+        <v>51.91147831524741</v>
       </c>
       <c r="L22" t="n">
-        <v>51.91147831524732</v>
+        <v>99.94172460692491</v>
       </c>
       <c r="M22" t="n">
-        <v>98.00110859513981</v>
+        <v>146.0313548868175</v>
       </c>
       <c r="N22" t="n">
-        <v>98.00110859513981</v>
+        <v>146.0313548868175</v>
       </c>
       <c r="O22" t="n">
-        <v>146.0313548868172</v>
+        <v>146.0313548868175</v>
       </c>
       <c r="P22" t="n">
-        <v>194.0616011784947</v>
+        <v>194.061601178495</v>
       </c>
       <c r="Q22" t="n">
-        <v>194.0616011784947</v>
+        <v>194.061601178495</v>
       </c>
       <c r="R22" t="n">
-        <v>150.8975965527325</v>
+        <v>194.061601178495</v>
       </c>
       <c r="S22" t="n">
-        <v>101.8921417096783</v>
+        <v>194.061601178495</v>
       </c>
       <c r="T22" t="n">
-        <v>52.8866868666241</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="U22" t="n">
-        <v>3.881232023569893</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="V22" t="n">
-        <v>3.881232023569893</v>
+        <v>145.0561463354407</v>
       </c>
       <c r="W22" t="n">
-        <v>3.881232023569893</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="X22" t="n">
-        <v>3.881232023569893</v>
+        <v>96.05069149238642</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.881232023569893</v>
+        <v>47.04523664933213</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>276.1174882683716</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="C23" t="n">
-        <v>276.1174882683716</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="D23" t="n">
-        <v>276.1174882683716</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="E23" t="n">
-        <v>206.3908498167626</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="F23" t="n">
-        <v>136.6642113651536</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="G23" t="n">
-        <v>66.93757291354461</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="H23" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="I23" t="n">
         <v>5.522349765367433</v>
@@ -5998,43 +5998,43 @@
         <v>83.79738245932582</v>
       </c>
       <c r="M23" t="n">
-        <v>152.1364608057478</v>
+        <v>127.7298252819263</v>
       </c>
       <c r="N23" t="n">
-        <v>200.1667070974252</v>
+        <v>175.7600715736037</v>
       </c>
       <c r="O23" t="n">
-        <v>232.1850454457712</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="P23" t="n">
-        <v>232.1850454457712</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="Q23" t="n">
         <v>276.1174882683716</v>
       </c>
       <c r="R23" t="n">
-        <v>276.1174882683716</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="S23" t="n">
-        <v>276.1174882683716</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="T23" t="n">
-        <v>276.1174882683716</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="U23" t="n">
-        <v>276.1174882683716</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="V23" t="n">
-        <v>276.1174882683716</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="W23" t="n">
-        <v>276.1174882683716</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="X23" t="n">
-        <v>276.1174882683716</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="Y23" t="n">
-        <v>276.1174882683716</v>
+        <v>153.8395142757774</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>87.76096907875609</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="C24" t="n">
-        <v>87.76096907875609</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="D24" t="n">
-        <v>87.76096907875609</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="E24" t="n">
-        <v>87.76096907875609</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="F24" t="n">
-        <v>18.03433062714709</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="G24" t="n">
         <v>5.522349765367433</v>
@@ -6092,28 +6092,28 @@
         <v>276.1174882683716</v>
       </c>
       <c r="R24" t="n">
-        <v>227.2142459819741</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="S24" t="n">
-        <v>227.2142459819741</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="T24" t="n">
-        <v>157.4876075303651</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="U24" t="n">
-        <v>157.4876075303651</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="V24" t="n">
-        <v>157.4876075303651</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="W24" t="n">
-        <v>87.76096907875609</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="X24" t="n">
-        <v>87.76096907875609</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="Y24" t="n">
-        <v>87.76096907875609</v>
+        <v>66.93757291354461</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>119.6547888796862</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="C25" t="n">
-        <v>119.6547888796862</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="D25" t="n">
-        <v>119.6547888796862</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="E25" t="n">
-        <v>119.6547888796862</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="F25" t="n">
-        <v>119.6547888796862</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="G25" t="n">
-        <v>119.6547888796862</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="H25" t="n">
-        <v>119.6547888796862</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="I25" t="n">
-        <v>49.9281504280772</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="J25" t="n">
         <v>5.522349765367433</v>
       </c>
       <c r="K25" t="n">
-        <v>5.522349765367433</v>
+        <v>63.83896525826776</v>
       </c>
       <c r="L25" t="n">
-        <v>5.522349765367433</v>
+        <v>132.1780436046897</v>
       </c>
       <c r="M25" t="n">
-        <v>73.86142811178941</v>
+        <v>139.4393315755277</v>
       </c>
       <c r="N25" t="n">
-        <v>142.2005064582114</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="O25" t="n">
-        <v>210.5395848046334</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="P25" t="n">
         <v>276.1174882683716</v>
       </c>
       <c r="Q25" t="n">
-        <v>259.1080657829042</v>
+        <v>248.1819136824803</v>
       </c>
       <c r="R25" t="n">
-        <v>189.3814273312952</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="S25" t="n">
-        <v>119.6547888796862</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="T25" t="n">
-        <v>119.6547888796862</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="U25" t="n">
-        <v>119.6547888796862</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="V25" t="n">
-        <v>119.6547888796862</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="W25" t="n">
-        <v>119.6547888796862</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="X25" t="n">
-        <v>119.6547888796862</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="Y25" t="n">
-        <v>119.6547888796862</v>
+        <v>214.7022651201945</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="C26" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="D26" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="E26" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="F26" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="G26" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="H26" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="I26" t="n">
         <v>5.522349765367433</v>
@@ -6229,22 +6229,22 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K26" t="n">
-        <v>73.86142811178941</v>
+        <v>16.66564582632436</v>
       </c>
       <c r="L26" t="n">
-        <v>142.2005064582114</v>
+        <v>85.00472417274634</v>
       </c>
       <c r="M26" t="n">
-        <v>196.0689036283482</v>
+        <v>127.7298252819263</v>
       </c>
       <c r="N26" t="n">
-        <v>244.0991499200256</v>
+        <v>175.7600715736037</v>
       </c>
       <c r="O26" t="n">
-        <v>276.1174882683716</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="P26" t="n">
-        <v>276.1174882683716</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="Q26" t="n">
         <v>276.1174882683716</v>
@@ -6253,25 +6253,25 @@
         <v>276.1174882683716</v>
       </c>
       <c r="S26" t="n">
-        <v>214.7022651201945</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="T26" t="n">
+        <v>206.3908498167626</v>
+      </c>
+      <c r="U26" t="n">
         <v>144.9756266685854</v>
       </c>
-      <c r="U26" t="n">
-        <v>75.24898821697644</v>
-      </c>
       <c r="V26" t="n">
-        <v>75.24898821697644</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="W26" t="n">
-        <v>75.24898821697644</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="X26" t="n">
-        <v>75.24898821697644</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="Y26" t="n">
-        <v>75.24898821697644</v>
+        <v>144.9756266685854</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.522349765367433</v>
+        <v>157.4876075303651</v>
       </c>
       <c r="C27" t="n">
-        <v>5.522349765367433</v>
+        <v>157.4876075303651</v>
       </c>
       <c r="D27" t="n">
-        <v>5.522349765367433</v>
+        <v>157.4876075303651</v>
       </c>
       <c r="E27" t="n">
-        <v>5.522349765367433</v>
+        <v>157.4876075303651</v>
       </c>
       <c r="F27" t="n">
-        <v>5.522349765367433</v>
+        <v>87.76096907875609</v>
       </c>
       <c r="G27" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="H27" t="n">
         <v>5.522349765367433</v>
@@ -6311,19 +6311,19 @@
         <v>5.522349765367433</v>
       </c>
       <c r="L27" t="n">
-        <v>47.4968056191245</v>
+        <v>59.390589567631</v>
       </c>
       <c r="M27" t="n">
-        <v>115.8358839655465</v>
+        <v>127.729667914053</v>
       </c>
       <c r="N27" t="n">
-        <v>184.1749623119684</v>
+        <v>196.0687462604749</v>
       </c>
       <c r="O27" t="n">
-        <v>239.3078042836563</v>
+        <v>251.2015882321627</v>
       </c>
       <c r="P27" t="n">
-        <v>264.2237043198651</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="Q27" t="n">
         <v>276.1174882683716</v>
@@ -6332,25 +6332,25 @@
         <v>227.2142459819741</v>
       </c>
       <c r="S27" t="n">
+        <v>227.2142459819741</v>
+      </c>
+      <c r="T27" t="n">
+        <v>227.2142459819741</v>
+      </c>
+      <c r="U27" t="n">
+        <v>227.2142459819741</v>
+      </c>
+      <c r="V27" t="n">
         <v>157.4876075303651</v>
       </c>
-      <c r="T27" t="n">
-        <v>87.76096907875609</v>
-      </c>
-      <c r="U27" t="n">
-        <v>75.24898821697644</v>
-      </c>
-      <c r="V27" t="n">
-        <v>5.522349765367433</v>
-      </c>
       <c r="W27" t="n">
-        <v>5.522349765367433</v>
+        <v>157.4876075303651</v>
       </c>
       <c r="X27" t="n">
-        <v>5.522349765367433</v>
+        <v>157.4876075303651</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.522349765367433</v>
+        <v>157.4876075303651</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>276.1174882683716</v>
+        <v>119.6547888796862</v>
       </c>
       <c r="C28" t="n">
-        <v>206.3908498167626</v>
+        <v>119.6547888796862</v>
       </c>
       <c r="D28" t="n">
-        <v>136.6642113651536</v>
+        <v>119.6547888796862</v>
       </c>
       <c r="E28" t="n">
-        <v>66.93757291354461</v>
+        <v>119.6547888796862</v>
       </c>
       <c r="F28" t="n">
-        <v>5.522349765367433</v>
+        <v>119.6547888796862</v>
       </c>
       <c r="G28" t="n">
-        <v>5.522349765367433</v>
+        <v>49.9281504280772</v>
       </c>
       <c r="H28" t="n">
-        <v>5.522349765367433</v>
+        <v>49.9281504280772</v>
       </c>
       <c r="I28" t="n">
-        <v>5.522349765367433</v>
+        <v>49.9281504280772</v>
       </c>
       <c r="J28" t="n">
         <v>5.522349765367433</v>
       </c>
       <c r="K28" t="n">
-        <v>5.522349765367433</v>
+        <v>63.83896525826776</v>
       </c>
       <c r="L28" t="n">
-        <v>73.86142811178941</v>
+        <v>63.83896525826776</v>
       </c>
       <c r="M28" t="n">
-        <v>142.2005064582114</v>
+        <v>132.1780436046897</v>
       </c>
       <c r="N28" t="n">
-        <v>207.7784099219497</v>
+        <v>200.5171219511117</v>
       </c>
       <c r="O28" t="n">
-        <v>276.1174882683716</v>
+        <v>268.8562002975336</v>
       </c>
       <c r="P28" t="n">
         <v>276.1174882683716</v>
@@ -6411,25 +6411,25 @@
         <v>276.1174882683716</v>
       </c>
       <c r="S28" t="n">
-        <v>276.1174882683716</v>
+        <v>259.1080657829042</v>
       </c>
       <c r="T28" t="n">
-        <v>276.1174882683716</v>
+        <v>189.3814273312952</v>
       </c>
       <c r="U28" t="n">
-        <v>276.1174882683716</v>
+        <v>189.3814273312952</v>
       </c>
       <c r="V28" t="n">
-        <v>276.1174882683716</v>
+        <v>189.3814273312952</v>
       </c>
       <c r="W28" t="n">
-        <v>276.1174882683716</v>
+        <v>189.3814273312952</v>
       </c>
       <c r="X28" t="n">
-        <v>276.1174882683716</v>
+        <v>189.3814273312952</v>
       </c>
       <c r="Y28" t="n">
-        <v>276.1174882683716</v>
+        <v>119.6547888796862</v>
       </c>
     </row>
     <row r="29">
@@ -6466,46 +6466,46 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K29" t="n">
-        <v>5.522349765367433</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="L29" t="n">
-        <v>15.45830411290384</v>
+        <v>83.79738245932582</v>
       </c>
       <c r="M29" t="n">
-        <v>83.79738245932582</v>
+        <v>126.5224835685058</v>
       </c>
       <c r="N29" t="n">
-        <v>131.8276287510032</v>
+        <v>174.5527298601832</v>
       </c>
       <c r="O29" t="n">
-        <v>200.1667070974252</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="P29" t="n">
-        <v>268.5057854438472</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="Q29" t="n">
         <v>276.1174882683716</v>
       </c>
       <c r="R29" t="n">
-        <v>276.1174882683716</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="S29" t="n">
-        <v>276.1174882683716</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="T29" t="n">
-        <v>206.3908498167626</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="U29" t="n">
-        <v>206.3908498167626</v>
+        <v>14.38623737255938</v>
       </c>
       <c r="V29" t="n">
-        <v>206.3908498167626</v>
+        <v>14.38623737255938</v>
       </c>
       <c r="W29" t="n">
-        <v>136.6642113651536</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="X29" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="Y29" t="n">
         <v>5.522349765367433</v>
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>144.9756266685854</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="C30" t="n">
         <v>75.24898821697644</v>
       </c>
       <c r="D30" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="E30" t="n">
         <v>5.522349765367433</v>
@@ -6548,19 +6548,19 @@
         <v>5.522349765367433</v>
       </c>
       <c r="L30" t="n">
-        <v>47.4968056191245</v>
+        <v>59.390589567631</v>
       </c>
       <c r="M30" t="n">
-        <v>115.8358839655465</v>
+        <v>127.729667914053</v>
       </c>
       <c r="N30" t="n">
-        <v>184.1749623119684</v>
+        <v>196.0687462604749</v>
       </c>
       <c r="O30" t="n">
-        <v>239.3078042836563</v>
+        <v>251.2015882321627</v>
       </c>
       <c r="P30" t="n">
-        <v>264.2237043198651</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="Q30" t="n">
         <v>276.1174882683716</v>
@@ -6572,22 +6572,22 @@
         <v>276.1174882683716</v>
       </c>
       <c r="T30" t="n">
-        <v>276.1174882683716</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="U30" t="n">
-        <v>276.1174882683716</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="V30" t="n">
-        <v>276.1174882683716</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="W30" t="n">
-        <v>276.1174882683716</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="X30" t="n">
-        <v>276.1174882683716</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="Y30" t="n">
-        <v>206.3908498167626</v>
+        <v>136.6642113651536</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>178.4552752308713</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="C31" t="n">
-        <v>178.4552752308713</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="D31" t="n">
-        <v>178.4552752308713</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="E31" t="n">
-        <v>178.4552752308713</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="F31" t="n">
-        <v>178.4552752308713</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="G31" t="n">
-        <v>178.4552752308713</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="H31" t="n">
-        <v>108.7286367792623</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="I31" t="n">
-        <v>39.00199832765333</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="J31" t="n">
         <v>5.522349765367433</v>
       </c>
       <c r="K31" t="n">
-        <v>63.83896525826776</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L31" t="n">
-        <v>71.10025322910575</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="M31" t="n">
+        <v>73.86142811178941</v>
+      </c>
+      <c r="N31" t="n">
         <v>139.4393315755277</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>207.7784099219497</v>
-      </c>
-      <c r="O31" t="n">
-        <v>276.1174882683716</v>
       </c>
       <c r="P31" t="n">
         <v>276.1174882683716</v>
       </c>
       <c r="Q31" t="n">
-        <v>248.1819136824803</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="R31" t="n">
-        <v>178.4552752308713</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="S31" t="n">
-        <v>178.4552752308713</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="T31" t="n">
-        <v>178.4552752308713</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="U31" t="n">
-        <v>178.4552752308713</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="V31" t="n">
-        <v>178.4552752308713</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="W31" t="n">
-        <v>178.4552752308713</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="X31" t="n">
-        <v>178.4552752308713</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="Y31" t="n">
-        <v>178.4552752308713</v>
+        <v>5.522349765367433</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14.38623737255938</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="C32" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="D32" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="E32" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="F32" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="G32" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="H32" t="n">
         <v>5.522349765367433</v>
@@ -6700,25 +6700,25 @@
         <v>5.522349765367433</v>
       </c>
       <c r="J32" t="n">
-        <v>5.522349765367433</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="K32" t="n">
-        <v>5.522349765367433</v>
+        <v>142.2005064582114</v>
       </c>
       <c r="L32" t="n">
-        <v>15.45830411290384</v>
+        <v>153.3438025191683</v>
       </c>
       <c r="M32" t="n">
-        <v>83.79738245932582</v>
+        <v>196.0689036283482</v>
       </c>
       <c r="N32" t="n">
-        <v>152.1364608057478</v>
+        <v>244.0991499200256</v>
       </c>
       <c r="O32" t="n">
-        <v>207.7784099219497</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="P32" t="n">
-        <v>207.7784099219497</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="Q32" t="n">
         <v>276.1174882683716</v>
@@ -6733,19 +6733,19 @@
         <v>223.5661527273864</v>
       </c>
       <c r="U32" t="n">
-        <v>223.5661527273864</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="V32" t="n">
-        <v>153.8395142757774</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="W32" t="n">
-        <v>153.8395142757774</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="X32" t="n">
-        <v>153.8395142757774</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="Y32" t="n">
-        <v>84.11287582416838</v>
+        <v>75.24898821697644</v>
       </c>
     </row>
     <row r="33">
@@ -6803,16 +6803,16 @@
         <v>276.1174882683716</v>
       </c>
       <c r="R33" t="n">
-        <v>227.2142459819741</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="S33" t="n">
-        <v>157.4876075303651</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="T33" t="n">
-        <v>87.76096907875609</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="U33" t="n">
-        <v>87.76096907875609</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="V33" t="n">
         <v>75.24898821697644</v>
@@ -6840,10 +6840,10 @@
         <v>75.24898821697644</v>
       </c>
       <c r="D34" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="E34" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="F34" t="n">
         <v>5.522349765367433</v>
@@ -6867,34 +6867,34 @@
         <v>5.522349765367433</v>
       </c>
       <c r="M34" t="n">
-        <v>71.10025322910575</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="N34" t="n">
-        <v>139.4393315755277</v>
+        <v>142.2005064582114</v>
       </c>
       <c r="O34" t="n">
-        <v>207.7784099219497</v>
+        <v>210.5395848046334</v>
       </c>
       <c r="P34" t="n">
         <v>276.1174882683716</v>
       </c>
       <c r="Q34" t="n">
-        <v>248.1819136824803</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="R34" t="n">
-        <v>214.7022651201945</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="S34" t="n">
-        <v>144.9756266685854</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="T34" t="n">
-        <v>144.9756266685854</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="U34" t="n">
-        <v>144.9756266685854</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="V34" t="n">
-        <v>144.9756266685854</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="W34" t="n">
         <v>144.9756266685854</v>
@@ -6903,7 +6903,7 @@
         <v>144.9756266685854</v>
       </c>
       <c r="Y34" t="n">
-        <v>144.9756266685854</v>
+        <v>75.24898821697644</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="C35" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="D35" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="E35" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="F35" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="G35" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="H35" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="I35" t="n">
         <v>3.881232023569892</v>
       </c>
       <c r="J35" t="n">
+        <v>3.881232023569892</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.881232023569892</v>
+      </c>
+      <c r="L35" t="n">
         <v>51.9114783152473</v>
       </c>
-      <c r="K35" t="n">
-        <v>61.35196108175484</v>
-      </c>
-      <c r="L35" t="n">
-        <v>71.28791542929125</v>
-      </c>
       <c r="M35" t="n">
-        <v>114.0130165384712</v>
+        <v>94.63657942442725</v>
       </c>
       <c r="N35" t="n">
-        <v>162.0432628301486</v>
+        <v>142.6668257161047</v>
       </c>
       <c r="O35" t="n">
-        <v>194.0616011784946</v>
+        <v>174.6851640644506</v>
       </c>
       <c r="P35" t="n">
         <v>194.0616011784946</v>
@@ -6964,25 +6964,25 @@
         <v>145.0561463354404</v>
       </c>
       <c r="S35" t="n">
-        <v>96.05069149238619</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="T35" t="n">
-        <v>47.045236649332</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="U35" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="V35" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="W35" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="X35" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="C36" t="n">
         <v>96.05069149238619</v>
       </c>
       <c r="D36" t="n">
-        <v>47.045236649332</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="E36" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="F36" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="G36" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="H36" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="I36" t="n">
         <v>3.881232023569892</v>
@@ -7025,10 +7025,10 @@
         <v>45.85568787732696</v>
       </c>
       <c r="M36" t="n">
-        <v>73.0852085589309</v>
+        <v>93.88593416900437</v>
       </c>
       <c r="N36" t="n">
-        <v>121.1154548506083</v>
+        <v>141.9161804606818</v>
       </c>
       <c r="O36" t="n">
         <v>169.1457011422857</v>
@@ -7049,19 +7049,19 @@
         <v>194.0616011784946</v>
       </c>
       <c r="U36" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="V36" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="W36" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="X36" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="Y36" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238619</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.88668686662408</v>
+        <v>47.045236649332</v>
       </c>
       <c r="C37" t="n">
-        <v>52.88668686662408</v>
+        <v>47.045236649332</v>
       </c>
       <c r="D37" t="n">
-        <v>52.88668686662408</v>
+        <v>47.045236649332</v>
       </c>
       <c r="E37" t="n">
-        <v>52.88668686662408</v>
+        <v>47.045236649332</v>
       </c>
       <c r="F37" t="n">
-        <v>52.88668686662408</v>
+        <v>47.045236649332</v>
       </c>
       <c r="G37" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H37" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I37" t="n">
         <v>3.881232023569892</v>
@@ -7101,16 +7101,16 @@
         <v>3.881232023569892</v>
       </c>
       <c r="L37" t="n">
+        <v>3.881232023569892</v>
+      </c>
+      <c r="M37" t="n">
         <v>49.97086230346238</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>98.00110859513978</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>146.0313548868172</v>
-      </c>
-      <c r="O37" t="n">
-        <v>194.0616011784946</v>
       </c>
       <c r="P37" t="n">
         <v>194.0616011784946</v>
@@ -7122,25 +7122,25 @@
         <v>194.0616011784946</v>
       </c>
       <c r="S37" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="T37" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="U37" t="n">
-        <v>145.0561463354404</v>
+        <v>47.045236649332</v>
       </c>
       <c r="V37" t="n">
-        <v>96.05069149238619</v>
+        <v>47.045236649332</v>
       </c>
       <c r="W37" t="n">
-        <v>96.05069149238619</v>
+        <v>47.045236649332</v>
       </c>
       <c r="X37" t="n">
-        <v>52.88668686662408</v>
+        <v>47.045236649332</v>
       </c>
       <c r="Y37" t="n">
-        <v>52.88668686662408</v>
+        <v>47.045236649332</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>145.0561463354404</v>
+      </c>
+      <c r="C38" t="n">
+        <v>145.0561463354404</v>
+      </c>
+      <c r="D38" t="n">
+        <v>145.0561463354404</v>
+      </c>
+      <c r="E38" t="n">
+        <v>145.0561463354404</v>
+      </c>
+      <c r="F38" t="n">
+        <v>145.0561463354404</v>
+      </c>
+      <c r="G38" t="n">
         <v>101.8921417096783</v>
       </c>
-      <c r="C38" t="n">
+      <c r="H38" t="n">
         <v>52.88668686662408</v>
-      </c>
-      <c r="D38" t="n">
-        <v>52.88668686662408</v>
-      </c>
-      <c r="E38" t="n">
-        <v>52.88668686662408</v>
-      </c>
-      <c r="F38" t="n">
-        <v>52.88668686662408</v>
-      </c>
-      <c r="G38" t="n">
-        <v>3.881232023569892</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.881232023569892</v>
       </c>
       <c r="I38" t="n">
         <v>3.881232023569892</v>
       </c>
       <c r="J38" t="n">
+        <v>3.881232023569892</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.881232023569892</v>
+      </c>
+      <c r="L38" t="n">
         <v>51.9114783152473</v>
       </c>
-      <c r="K38" t="n">
-        <v>51.9114783152473</v>
-      </c>
-      <c r="L38" t="n">
-        <v>61.84743266278371</v>
-      </c>
       <c r="M38" t="n">
-        <v>104.5725337719637</v>
+        <v>98.00110859513978</v>
       </c>
       <c r="N38" t="n">
-        <v>152.6027800636411</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O38" t="n">
         <v>194.0616011784946</v>
@@ -7198,28 +7198,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R38" t="n">
-        <v>150.8975965527325</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S38" t="n">
-        <v>101.8921417096783</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T38" t="n">
-        <v>101.8921417096783</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="U38" t="n">
-        <v>101.8921417096783</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="V38" t="n">
-        <v>101.8921417096783</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="W38" t="n">
-        <v>101.8921417096783</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="X38" t="n">
-        <v>101.8921417096783</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Y38" t="n">
-        <v>101.8921417096783</v>
+        <v>145.0561463354404</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="C39" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="D39" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="E39" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="F39" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="G39" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="H39" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="I39" t="n">
         <v>3.881232023569892</v>
@@ -7262,10 +7262,10 @@
         <v>45.85568787732696</v>
       </c>
       <c r="M39" t="n">
-        <v>93.88593416900437</v>
+        <v>73.0852085589309</v>
       </c>
       <c r="N39" t="n">
-        <v>141.9161804606818</v>
+        <v>121.1154548506083</v>
       </c>
       <c r="O39" t="n">
         <v>169.1457011422857</v>
@@ -7280,25 +7280,25 @@
         <v>194.0616011784946</v>
       </c>
       <c r="S39" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T39" t="n">
-        <v>96.05069149238619</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="U39" t="n">
-        <v>47.045236649332</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="V39" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="W39" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="X39" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="Y39" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="C40" t="n">
-        <v>194.0616011784946</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="D40" t="n">
-        <v>194.0616011784946</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="E40" t="n">
-        <v>194.0616011784946</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F40" t="n">
-        <v>194.0616011784946</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G40" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H40" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I40" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J40" t="n">
         <v>3.881232023569892</v>
       </c>
       <c r="K40" t="n">
-        <v>49.97086230346238</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L40" t="n">
-        <v>49.97086230346238</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="M40" t="n">
-        <v>49.97086230346238</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="N40" t="n">
-        <v>98.00110859513978</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="O40" t="n">
-        <v>146.0313548868172</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="P40" t="n">
         <v>194.0616011784946</v>
@@ -7356,28 +7356,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R40" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="S40" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="T40" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="U40" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="V40" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="W40" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>101.8921417096783</v>
+        <v>47.045236649332</v>
       </c>
       <c r="C41" t="n">
-        <v>101.8921417096783</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D41" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E41" t="n">
         <v>3.881232023569892</v>
@@ -7417,19 +7417,19 @@
         <v>3.881232023569892</v>
       </c>
       <c r="L41" t="n">
-        <v>13.8171863711063</v>
+        <v>49.97086230346238</v>
       </c>
       <c r="M41" t="n">
-        <v>56.54228748028625</v>
+        <v>98.00110859513978</v>
       </c>
       <c r="N41" t="n">
-        <v>104.5725337719637</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O41" t="n">
-        <v>136.5908721203097</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P41" t="n">
-        <v>184.6211184119871</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q41" t="n">
         <v>194.0616011784946</v>
@@ -7441,22 +7441,22 @@
         <v>194.0616011784946</v>
       </c>
       <c r="T41" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="U41" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="V41" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="W41" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="X41" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="Y41" t="n">
-        <v>101.8921417096783</v>
+        <v>96.05069149238619</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.881232023569892</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="C42" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="D42" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="E42" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="F42" t="n">
         <v>3.881232023569892</v>
@@ -7496,13 +7496,13 @@
         <v>3.881232023569892</v>
       </c>
       <c r="L42" t="n">
-        <v>25.05496226725349</v>
+        <v>45.85568787732696</v>
       </c>
       <c r="M42" t="n">
-        <v>73.0852085589309</v>
+        <v>93.88593416900437</v>
       </c>
       <c r="N42" t="n">
-        <v>121.1154548506083</v>
+        <v>141.9161804606818</v>
       </c>
       <c r="O42" t="n">
         <v>169.1457011422857</v>
@@ -7523,19 +7523,19 @@
         <v>150.8975965527325</v>
       </c>
       <c r="U42" t="n">
-        <v>101.8921417096783</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="V42" t="n">
-        <v>52.88668686662408</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="W42" t="n">
-        <v>3.881232023569892</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="X42" t="n">
-        <v>3.881232023569892</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="Y42" t="n">
-        <v>3.881232023569892</v>
+        <v>150.8975965527325</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="C43" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="D43" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="E43" t="n">
         <v>3.881232023569892</v>
@@ -7572,49 +7572,49 @@
         <v>3.881232023569892</v>
       </c>
       <c r="K43" t="n">
-        <v>3.881232023569892</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="L43" t="n">
-        <v>3.881232023569892</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="M43" t="n">
-        <v>49.97086230346238</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="N43" t="n">
-        <v>98.00110859513978</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="O43" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P43" t="n">
         <v>194.0616011784946</v>
       </c>
       <c r="Q43" t="n">
-        <v>166.1260265926033</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R43" t="n">
-        <v>117.1205717495491</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S43" t="n">
-        <v>68.1151169064949</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="T43" t="n">
+        <v>96.05069149238619</v>
+      </c>
+      <c r="U43" t="n">
+        <v>96.05069149238619</v>
+      </c>
+      <c r="V43" t="n">
+        <v>96.05069149238619</v>
+      </c>
+      <c r="W43" t="n">
+        <v>96.05069149238619</v>
+      </c>
+      <c r="X43" t="n">
         <v>52.88668686662408</v>
       </c>
-      <c r="U43" t="n">
-        <v>3.881232023569892</v>
-      </c>
-      <c r="V43" t="n">
-        <v>3.881232023569892</v>
-      </c>
-      <c r="W43" t="n">
-        <v>3.881232023569892</v>
-      </c>
-      <c r="X43" t="n">
-        <v>3.881232023569892</v>
-      </c>
       <c r="Y43" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>52.88668686662408</v>
       </c>
       <c r="C44" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="D44" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="E44" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="F44" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="G44" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="H44" t="n">
         <v>3.881232023569892</v>
@@ -7654,16 +7654,16 @@
         <v>3.881232023569892</v>
       </c>
       <c r="L44" t="n">
-        <v>13.8171863711063</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="M44" t="n">
-        <v>61.84743266278371</v>
+        <v>98.00110859513978</v>
       </c>
       <c r="N44" t="n">
-        <v>109.8776789544611</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O44" t="n">
-        <v>157.9079252461385</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P44" t="n">
         <v>194.0616011784946</v>
@@ -7675,25 +7675,25 @@
         <v>194.0616011784946</v>
       </c>
       <c r="S44" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="T44" t="n">
-        <v>194.0616011784946</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="U44" t="n">
-        <v>194.0616011784946</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="V44" t="n">
-        <v>194.0616011784946</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="W44" t="n">
-        <v>150.8975965527325</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="X44" t="n">
-        <v>150.8975965527325</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="Y44" t="n">
-        <v>101.8921417096783</v>
+        <v>52.88668686662408</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="C45" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="D45" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="E45" t="n">
         <v>3.881232023569892</v>
@@ -7733,13 +7733,13 @@
         <v>3.881232023569892</v>
       </c>
       <c r="L45" t="n">
-        <v>25.05496226725349</v>
+        <v>45.85568787732696</v>
       </c>
       <c r="M45" t="n">
-        <v>73.0852085589309</v>
+        <v>93.88593416900437</v>
       </c>
       <c r="N45" t="n">
-        <v>121.1154548506083</v>
+        <v>141.9161804606818</v>
       </c>
       <c r="O45" t="n">
         <v>169.1457011422857</v>
@@ -7760,19 +7760,19 @@
         <v>194.0616011784946</v>
       </c>
       <c r="U45" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="V45" t="n">
         <v>145.0561463354404</v>
       </c>
       <c r="W45" t="n">
+        <v>145.0561463354404</v>
+      </c>
+      <c r="X45" t="n">
         <v>96.05069149238619</v>
       </c>
-      <c r="X45" t="n">
-        <v>47.045236649332</v>
-      </c>
       <c r="Y45" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>194.0616011784946</v>
+        <v>47.045236649332</v>
       </c>
       <c r="C46" t="n">
-        <v>145.0561463354404</v>
+        <v>47.045236649332</v>
       </c>
       <c r="D46" t="n">
-        <v>101.8921417096783</v>
+        <v>47.045236649332</v>
       </c>
       <c r="E46" t="n">
-        <v>52.88668686662408</v>
+        <v>47.045236649332</v>
       </c>
       <c r="F46" t="n">
-        <v>52.88668686662408</v>
+        <v>47.045236649332</v>
       </c>
       <c r="G46" t="n">
-        <v>3.881232023569892</v>
+        <v>47.045236649332</v>
       </c>
       <c r="H46" t="n">
         <v>3.881232023569892</v>
@@ -7812,16 +7812,16 @@
         <v>3.881232023569892</v>
       </c>
       <c r="L46" t="n">
-        <v>3.881232023569892</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="M46" t="n">
-        <v>49.97086230346238</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="N46" t="n">
-        <v>98.00110859513978</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="O46" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P46" t="n">
         <v>194.0616011784946</v>
@@ -7830,28 +7830,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R46" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="S46" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="T46" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="U46" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="V46" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="W46" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.0616011784946</v>
+        <v>47.045236649332</v>
       </c>
     </row>
   </sheetData>
@@ -8695,22 +8695,22 @@
         <v>21.95586290547635</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>38.47908277185969</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>3.398514313851109</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.535841178290404</v>
+        <v>16.17364438720352</v>
       </c>
       <c r="P11" t="n">
         <v>7.246555403111074</v>
       </c>
       <c r="Q11" t="n">
-        <v>102.6166016087918</v>
+        <v>54.10120131416818</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8850,19 +8850,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>96.35349442422532</v>
+        <v>47.83809412960169</v>
       </c>
       <c r="L13" t="n">
-        <v>79.52381423427897</v>
+        <v>77.56359604055689</v>
       </c>
       <c r="M13" t="n">
-        <v>77.91823012972321</v>
+        <v>77.91823012972334</v>
       </c>
       <c r="N13" t="n">
-        <v>67.32198350658552</v>
+        <v>69.28220170030779</v>
       </c>
       <c r="O13" t="n">
-        <v>39.69977393631557</v>
+        <v>88.21517423093933</v>
       </c>
       <c r="P13" t="n">
         <v>53.22453124785014</v>
@@ -8932,7 +8932,7 @@
         <v>21.95586290547635</v>
       </c>
       <c r="L14" t="n">
-        <v>38.47908277185959</v>
+        <v>38.47908277185969</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>16.17364438720354</v>
       </c>
       <c r="P14" t="n">
-        <v>26.81871410416553</v>
+        <v>10.6450697169622</v>
       </c>
       <c r="Q14" t="n">
         <v>54.10120131416818</v>
@@ -9090,19 +9090,19 @@
         <v>47.83809412960169</v>
       </c>
       <c r="L16" t="n">
-        <v>31.00841393965533</v>
+        <v>77.56359604055689</v>
       </c>
       <c r="M16" t="n">
-        <v>77.91823012972321</v>
+        <v>77.91823012972334</v>
       </c>
       <c r="N16" t="n">
-        <v>69.28220170030767</v>
+        <v>69.28220170030779</v>
       </c>
       <c r="O16" t="n">
-        <v>88.2151742309392</v>
+        <v>88.21517423093933</v>
       </c>
       <c r="P16" t="n">
-        <v>99.77971334875163</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9166,10 +9166,10 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K17" t="n">
-        <v>70.47126320010003</v>
+        <v>70.4712632001001</v>
       </c>
       <c r="L17" t="n">
-        <v>9.535841178290447</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>9.53584117829071</v>
       </c>
       <c r="P17" t="n">
         <v>7.246555403111074</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>47.83809412960169</v>
+        <v>96.35349442422543</v>
       </c>
       <c r="L19" t="n">
-        <v>31.00841393965533</v>
+        <v>79.52381423427907</v>
       </c>
       <c r="M19" t="n">
-        <v>77.91823012972324</v>
+        <v>77.91823012972333</v>
       </c>
       <c r="N19" t="n">
-        <v>69.2822017003077</v>
+        <v>67.32198350658561</v>
       </c>
       <c r="O19" t="n">
-        <v>86.25495603721707</v>
+        <v>39.69977393631557</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7399315424738</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>97.36099959559729</v>
+        <v>48.84559930097362</v>
       </c>
       <c r="K20" t="n">
         <v>21.95586290547635</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>36.51886457813751</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>5.358732507573279</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>16.17364438720352</v>
       </c>
       <c r="P20" t="n">
         <v>7.246555403111074</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63704249245867</v>
+        <v>54.10120131416818</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>96.35349442422535</v>
+        <v>96.35349442422543</v>
       </c>
       <c r="L22" t="n">
-        <v>31.00841393965533</v>
+        <v>79.52381423427907</v>
       </c>
       <c r="M22" t="n">
-        <v>75.95801193600109</v>
+        <v>75.95801193600116</v>
       </c>
       <c r="N22" t="n">
         <v>20.76680140568403</v>
       </c>
       <c r="O22" t="n">
-        <v>88.21517423093924</v>
+        <v>39.69977393631557</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7399315424738</v>
+        <v>101.7399315424739</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>25.87270428004246</v>
+        <v>1.219537084263152</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9655,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>7.246555403111074</v>
+        <v>76.27592747020395</v>
       </c>
       <c r="Q23" t="n">
-        <v>98.47740618548173</v>
+        <v>54.10120131416818</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9798,13 +9798,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>47.83809412960169</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>31.00841393965533</v>
+        <v>100.0377860067482</v>
       </c>
       <c r="M25" t="n">
-        <v>98.43220190219249</v>
+        <v>36.73746414907735</v>
       </c>
       <c r="N25" t="n">
         <v>89.79617347277694</v>
@@ -9813,7 +9813,7 @@
         <v>108.7291460034085</v>
       </c>
       <c r="P25" t="n">
-        <v>119.4648377768787</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9877,13 +9877,13 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K26" t="n">
-        <v>90.98523497256926</v>
+        <v>33.21171751250355</v>
       </c>
       <c r="L26" t="n">
-        <v>58.99305454432886</v>
+        <v>58.99305454432883</v>
       </c>
       <c r="M26" t="n">
-        <v>11.25585460702718</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>7.246555403111074</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.10120131416818</v>
+        <v>123.1305733812611</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9959,7 +9959,7 @@
         <v>3.266346048945991</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>12.0139231803096</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>45.61349598699763</v>
+        <v>33.59957280668804</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>47.83809412960169</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>100.0377860067482</v>
+        <v>31.00841393965533</v>
       </c>
       <c r="M28" t="n">
         <v>98.43220190219249</v>
       </c>
       <c r="N28" t="n">
-        <v>87.00710793471262</v>
+        <v>89.79617347277694</v>
       </c>
       <c r="O28" t="n">
         <v>108.7291460034085</v>
       </c>
       <c r="P28" t="n">
-        <v>53.22453124785014</v>
+        <v>60.55916556182791</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10114,25 +10114,25 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K29" t="n">
-        <v>21.95586290547635</v>
+        <v>90.98523497256926</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>25.87270428004246</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>36.6876161596727</v>
+        <v>1.219537084263123</v>
       </c>
       <c r="P29" t="n">
-        <v>76.27592747020398</v>
+        <v>7.246555403111074</v>
       </c>
       <c r="Q29" t="n">
-        <v>61.78979002580905</v>
+        <v>123.1305733812611</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10196,7 +10196,7 @@
         <v>3.266346048945991</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>12.0139231803096</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.61349598699763</v>
+        <v>33.59957280668804</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>47.83809412960169</v>
       </c>
       <c r="L31" t="n">
-        <v>38.34304825363309</v>
+        <v>31.00841393965533</v>
       </c>
       <c r="M31" t="n">
         <v>98.43220190219249</v>
       </c>
       <c r="N31" t="n">
-        <v>89.79617347277694</v>
+        <v>87.00710793471264</v>
       </c>
       <c r="O31" t="n">
         <v>108.7291460034085</v>
       </c>
       <c r="P31" t="n">
-        <v>53.22453124785014</v>
+        <v>122.253903314943</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>48.84559930097362</v>
+        <v>117.8749713680665</v>
       </c>
       <c r="K32" t="n">
-        <v>21.95586290547635</v>
+        <v>90.98523497256926</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.219537084263134</v>
       </c>
       <c r="M32" t="n">
-        <v>25.87270428004246</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>20.51397177246926</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>23.86223309884432</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>7.246555403111074</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.1305733812611</v>
+        <v>54.10120131416818</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10515,7 +10515,7 @@
         <v>31.00841393965533</v>
       </c>
       <c r="M34" t="n">
-        <v>95.64313636412818</v>
+        <v>98.43220190219249</v>
       </c>
       <c r="N34" t="n">
         <v>89.79617347277694</v>
@@ -10524,7 +10524,7 @@
         <v>108.7291460034085</v>
       </c>
       <c r="P34" t="n">
-        <v>122.253903314943</v>
+        <v>119.4648377768787</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>97.36099959559726</v>
+        <v>48.84559930097362</v>
       </c>
       <c r="K35" t="n">
-        <v>31.49170408376679</v>
+        <v>21.95586290547635</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>38.47908277185959</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>7.246555403111074</v>
+        <v>26.81871410416556</v>
       </c>
       <c r="Q35" t="n">
         <v>54.10120131416818</v>
@@ -10749,10 +10749,10 @@
         <v>47.83809412960169</v>
       </c>
       <c r="L37" t="n">
-        <v>77.56359604055683</v>
+        <v>31.00841393965533</v>
       </c>
       <c r="M37" t="n">
-        <v>77.91823012972323</v>
+        <v>75.95801193600107</v>
       </c>
       <c r="N37" t="n">
         <v>69.28220170030768</v>
@@ -10761,7 +10761,7 @@
         <v>88.21517423093921</v>
       </c>
       <c r="P37" t="n">
-        <v>53.22453124785014</v>
+        <v>101.7399315424738</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>97.36099959559726</v>
+        <v>48.84559930097362</v>
       </c>
       <c r="K38" t="n">
         <v>21.95586290547635</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>38.47908277185959</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>3.398514313851045</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>9.535841178290418</v>
+        <v>16.17364438720347</v>
       </c>
       <c r="P38" t="n">
         <v>7.246555403111074</v>
@@ -10983,13 +10983,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>94.39327623050318</v>
+        <v>47.83809412960169</v>
       </c>
       <c r="L40" t="n">
         <v>31.00841393965533</v>
       </c>
       <c r="M40" t="n">
-        <v>29.40282983509958</v>
+        <v>77.91823012972323</v>
       </c>
       <c r="N40" t="n">
         <v>69.28220170030768</v>
@@ -10998,7 +10998,7 @@
         <v>88.21517423093921</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7399315424738</v>
+        <v>99.77971334875163</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11065,22 +11065,22 @@
         <v>21.95586290547635</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>36.51886457813745</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>5.358732507573166</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>16.17364438720347</v>
       </c>
       <c r="P41" t="n">
-        <v>55.76195569773472</v>
+        <v>7.246555403111074</v>
       </c>
       <c r="Q41" t="n">
-        <v>63.63704249245861</v>
+        <v>54.10120131416818</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>47.83809412960169</v>
+        <v>96.35349442422533</v>
       </c>
       <c r="L43" t="n">
         <v>31.00841393965533</v>
       </c>
       <c r="M43" t="n">
-        <v>75.95801193600107</v>
+        <v>77.91823012972323</v>
       </c>
       <c r="N43" t="n">
         <v>69.28220170030768</v>
       </c>
       <c r="O43" t="n">
-        <v>88.21517423093921</v>
+        <v>86.25495603721706</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7399315424738</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11302,19 +11302,19 @@
         <v>21.95586290547635</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>38.47908277185959</v>
       </c>
       <c r="M44" t="n">
-        <v>5.358732507573194</v>
+        <v>3.398514313851045</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>16.17364438720344</v>
+        <v>16.17364438720347</v>
       </c>
       <c r="P44" t="n">
-        <v>43.76541998124851</v>
+        <v>7.246555403111074</v>
       </c>
       <c r="Q44" t="n">
         <v>54.10120131416818</v>
@@ -11460,19 +11460,19 @@
         <v>47.83809412960169</v>
       </c>
       <c r="L46" t="n">
-        <v>31.00841393965533</v>
+        <v>79.52381423427897</v>
       </c>
       <c r="M46" t="n">
-        <v>75.95801193600107</v>
+        <v>77.91823012972323</v>
       </c>
       <c r="N46" t="n">
         <v>69.28220170030768</v>
       </c>
       <c r="O46" t="n">
-        <v>88.21517423093921</v>
+        <v>86.25495603721706</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7399315424738</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>339.1980054927571</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>9.293457606070902</v>
+        <v>3.510421890951648</v>
       </c>
       <c r="S11" t="n">
-        <v>125.0106036313801</v>
+        <v>173.5260039260038</v>
       </c>
       <c r="T11" t="n">
-        <v>167.7620061569369</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U11" t="n">
-        <v>202.7056437156673</v>
+        <v>202.7056437156672</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>279.2368581755111</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23345,19 +23345,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>109.1296801607773</v>
+        <v>109.1296801607772</v>
       </c>
       <c r="F12" t="n">
-        <v>96.55381209876023</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>87.99472139402377</v>
+        <v>136.5101216886474</v>
       </c>
       <c r="H12" t="n">
-        <v>61.4542338894998</v>
+        <v>104.1865984690043</v>
       </c>
       <c r="I12" t="n">
-        <v>60.7029728719357</v>
+        <v>17.97060829243109</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23396,10 +23396,10 @@
         <v>225.8865534313325</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>184.2851868548015</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>203.1795828662958</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23439,7 +23439,7 @@
         <v>134.438937943893</v>
       </c>
       <c r="J13" t="n">
-        <v>43.96174265608267</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R13" t="n">
-        <v>97.36231335590594</v>
+        <v>145.8777136505296</v>
       </c>
       <c r="S13" t="n">
-        <v>163.3249231362086</v>
+        <v>163.3249231362084</v>
       </c>
       <c r="T13" t="n">
-        <v>176.4448740241712</v>
+        <v>224.9602743187949</v>
       </c>
       <c r="U13" t="n">
-        <v>271.2047732113658</v>
+        <v>286.2809189508379</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>203.6222430292042</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>178.4236331709915</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,22 +23497,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>316.7574914763839</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>306.1676413260593</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>358.3606454470878</v>
+        <v>358.3606454470877</v>
       </c>
       <c r="G14" t="n">
         <v>413.7451262958156</v>
       </c>
       <c r="H14" t="n">
-        <v>323.522916215912</v>
+        <v>275.0075159212882</v>
       </c>
       <c r="I14" t="n">
         <v>150.4260830375935</v>
@@ -23545,7 +23545,7 @@
         <v>52.02582218557539</v>
       </c>
       <c r="S14" t="n">
-        <v>130.7936393464993</v>
+        <v>173.5260039260038</v>
       </c>
       <c r="T14" t="n">
         <v>216.2774064515606</v>
@@ -23554,10 +23554,10 @@
         <v>251.2210440102909</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>279.2368581755111</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>306.5086041379084</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>124.1930986936921</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23585,13 +23585,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>96.55381209876023</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>87.99472139402377</v>
+        <v>136.5101216886474</v>
       </c>
       <c r="H15" t="n">
-        <v>61.4542338894998</v>
+        <v>104.1865984690043</v>
       </c>
       <c r="I15" t="n">
         <v>60.7029728719357</v>
@@ -23627,22 +23627,22 @@
         <v>156.2032156881569</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8055600934023</v>
+        <v>148.2901597987786</v>
       </c>
       <c r="U15" t="n">
         <v>225.8865534313325</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>184.2851868548015</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>163.0406206239729</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>157.1672954826806</v>
       </c>
     </row>
     <row r="16">
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>118.7768882935297</v>
+        <v>167.2922885881534</v>
       </c>
       <c r="H16" t="n">
-        <v>107.4997760913736</v>
+        <v>156.0151763859972</v>
       </c>
       <c r="I16" t="n">
-        <v>85.92353764926932</v>
+        <v>134.438937943893</v>
       </c>
       <c r="J16" t="n">
-        <v>1.229378076578193</v>
+        <v>43.96174265608267</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>145.8777136505296</v>
       </c>
       <c r="S16" t="n">
-        <v>211.8403234308322</v>
+        <v>163.3249231362084</v>
       </c>
       <c r="T16" t="n">
         <v>224.9602743187949</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2809189508379</v>
+        <v>243.5485543713333</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>203.6222430292042</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>177.1942550944134</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23737,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>311.9506770411783</v>
       </c>
       <c r="E17" t="n">
-        <v>339.1980054927573</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>358.3606454470878</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.7451262958156</v>
       </c>
       <c r="H17" t="n">
-        <v>275.0075159212884</v>
+        <v>323.522916215912</v>
       </c>
       <c r="I17" t="n">
-        <v>101.9106827429698</v>
+        <v>150.4260830375935</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>173.5260039260038</v>
       </c>
       <c r="T17" t="n">
-        <v>216.2774064515606</v>
+        <v>167.7620061569368</v>
       </c>
       <c r="U17" t="n">
         <v>251.2210440102909</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>279.2368581755111</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>337.7225383614298</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>118.0177833552436</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>124.193098693692</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23831,7 +23831,7 @@
         <v>104.1865984690043</v>
       </c>
       <c r="I18" t="n">
-        <v>12.18757257731203</v>
+        <v>60.7029728719357</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5.681845284029038</v>
+        <v>5.681845284028952</v>
       </c>
       <c r="S18" t="n">
-        <v>107.6878153935332</v>
+        <v>156.2032156881569</v>
       </c>
       <c r="T18" t="n">
         <v>148.2901597987786</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>100.1000727235886</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,13 +23907,13 @@
         <v>167.2922885881534</v>
       </c>
       <c r="H19" t="n">
-        <v>156.0151763859972</v>
+        <v>107.4997760913735</v>
       </c>
       <c r="I19" t="n">
         <v>134.438937943893</v>
       </c>
       <c r="J19" t="n">
-        <v>43.96174265608267</v>
+        <v>1.229378076578065</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R19" t="n">
         <v>145.8777136505296</v>
       </c>
       <c r="S19" t="n">
-        <v>163.3249231362085</v>
+        <v>211.8403234308322</v>
       </c>
       <c r="T19" t="n">
         <v>224.9602743187949</v>
       </c>
       <c r="U19" t="n">
-        <v>237.7655186562142</v>
+        <v>237.7655186562141</v>
       </c>
       <c r="V19" t="n">
-        <v>203.6222430292043</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>271.4468525971188</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>340.0014770839761</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>316.7574914763839</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23989,7 +23989,7 @@
         <v>323.522916215912</v>
       </c>
       <c r="I20" t="n">
-        <v>150.4260830375935</v>
+        <v>101.9106827429697</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>52.02582218557539</v>
+        <v>3.510421890951648</v>
       </c>
       <c r="S20" t="n">
-        <v>173.5260039260038</v>
+        <v>125.01060363138</v>
       </c>
       <c r="T20" t="n">
-        <v>216.2774064515606</v>
+        <v>173.5450418720559</v>
       </c>
       <c r="U20" t="n">
         <v>251.2210440102909</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>321.2157003838454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>337.7225383614299</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>118.0177833552436</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>124.193098693692</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24068,7 +24068,7 @@
         <v>104.1865984690043</v>
       </c>
       <c r="I21" t="n">
-        <v>12.18757257731203</v>
+        <v>60.7029728719357</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>5.681845284028952</v>
       </c>
       <c r="S21" t="n">
         <v>156.2032156881569</v>
       </c>
       <c r="T21" t="n">
-        <v>148.2901597987786</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U21" t="n">
         <v>225.8865534313325</v>
@@ -24113,10 +24113,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>162.9394301928828</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>157.1672954826806</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>137.0996156024327</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,28 +24174,28 @@
         <v>27.65621884003237</v>
       </c>
       <c r="R22" t="n">
-        <v>103.1453490710251</v>
+        <v>145.8777136505296</v>
       </c>
       <c r="S22" t="n">
-        <v>163.3249231362085</v>
+        <v>211.8403234308322</v>
       </c>
       <c r="T22" t="n">
         <v>176.4448740241712</v>
       </c>
       <c r="U22" t="n">
-        <v>237.7655186562142</v>
+        <v>286.2809189508379</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>238.0075980419672</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>170.069253057471</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>313.7044695963876</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>312.9009980051688</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>337.8466736746185</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>344.7157542287227</v>
+        <v>413.7451262958156</v>
       </c>
       <c r="H23" t="n">
-        <v>262.7218452992166</v>
+        <v>314.747667484792</v>
       </c>
       <c r="I23" t="n">
-        <v>150.4260830375935</v>
+        <v>81.39671097050058</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>52.02582218557539</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>173.5260039260038</v>
+        <v>104.4966318589109</v>
       </c>
       <c r="T23" t="n">
         <v>216.2774064515606</v>
@@ -24290,16 +24290,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>86.64399464794334</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>76.03984032629097</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>124.1232606354856</v>
+        <v>136.5101216886474</v>
       </c>
       <c r="H24" t="n">
         <v>104.1865984690043</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S24" t="n">
         <v>156.2032156881569</v>
@@ -24344,7 +24344,7 @@
         <v>225.8865534313325</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>163.7712150823324</v>
       </c>
       <c r="W24" t="n">
         <v>182.6656110938267</v>
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>79.58610095111945</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>77.40459057947626</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>76.39167595583834</v>
       </c>
       <c r="G25" t="n">
         <v>167.2922885881534</v>
@@ -24384,10 +24384,10 @@
         <v>156.0151763859972</v>
       </c>
       <c r="I25" t="n">
-        <v>65.40956587680006</v>
+        <v>134.438937943893</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>43.96174265608267</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.81689057941961</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>76.84834158343668</v>
+        <v>112.7328615738666</v>
       </c>
       <c r="S25" t="n">
-        <v>142.8109513637393</v>
+        <v>211.8403234308322</v>
       </c>
       <c r="T25" t="n">
         <v>224.9602743187949</v>
@@ -24463,7 +24463,7 @@
         <v>323.522916215912</v>
       </c>
       <c r="I26" t="n">
-        <v>150.4260830375935</v>
+        <v>81.39671097050058</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>52.02582218557539</v>
       </c>
       <c r="S26" t="n">
-        <v>112.7249330093084</v>
+        <v>173.5260039260038</v>
       </c>
       <c r="T26" t="n">
         <v>147.2480343844676</v>
       </c>
       <c r="U26" t="n">
-        <v>182.191671943198</v>
+        <v>190.4199730935955</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24533,13 +24533,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>76.03984032629097</v>
       </c>
       <c r="G27" t="n">
-        <v>136.5101216886474</v>
+        <v>124.1232606354856</v>
       </c>
       <c r="H27" t="n">
-        <v>104.1865984690043</v>
+        <v>35.15722640191137</v>
       </c>
       <c r="I27" t="n">
         <v>60.7029728719357</v>
@@ -24572,13 +24572,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>87.17384362106401</v>
+        <v>156.2032156881569</v>
       </c>
       <c r="T27" t="n">
-        <v>127.7761880263094</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U27" t="n">
-        <v>213.4996923781707</v>
+        <v>225.8865534313325</v>
       </c>
       <c r="V27" t="n">
         <v>163.7712150823324</v>
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>98.21744903153493</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>79.58610095111945</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>77.40459057947626</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>84.61997710623584</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2922885881534</v>
+        <v>98.26291652106048</v>
       </c>
       <c r="H28" t="n">
         <v>156.0151763859972</v>
@@ -24624,7 +24624,7 @@
         <v>134.438937943893</v>
       </c>
       <c r="J28" t="n">
-        <v>43.96174265608267</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>145.8777136505296</v>
       </c>
       <c r="S28" t="n">
-        <v>211.8403234308322</v>
+        <v>195.0009951702194</v>
       </c>
       <c r="T28" t="n">
-        <v>224.9602743187949</v>
+        <v>155.930902251702</v>
       </c>
       <c r="U28" t="n">
         <v>286.2809189508379</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>149.5552812850019</v>
       </c>
     </row>
     <row r="29">
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>52.02582218557539</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>173.5260039260038</v>
+        <v>104.4966318589109</v>
       </c>
       <c r="T29" t="n">
         <v>147.2480343844676</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2210440102909</v>
+        <v>182.191671943198</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>280.2115966503201</v>
+        <v>340.465719986293</v>
       </c>
       <c r="X29" t="n">
-        <v>300.7017286113761</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>325.4368677393581</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>105.7321127331719</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>103.6791269212228</v>
+        <v>111.9074280716203</v>
       </c>
       <c r="D30" t="n">
-        <v>78.41569349754585</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>88.61570838830804</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24812,10 +24812,10 @@
         <v>156.2032156881569</v>
       </c>
       <c r="T30" t="n">
-        <v>196.8055600934023</v>
+        <v>127.7761880263094</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8865534313325</v>
+        <v>156.8571813642396</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>136.6533237102115</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24855,13 +24855,13 @@
         <v>167.2922885881534</v>
       </c>
       <c r="H31" t="n">
-        <v>86.98580431890431</v>
+        <v>156.0151763859972</v>
       </c>
       <c r="I31" t="n">
-        <v>65.40956587680006</v>
+        <v>134.438937943893</v>
       </c>
       <c r="J31" t="n">
-        <v>10.81689057941963</v>
+        <v>43.96174265608267</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R31" t="n">
-        <v>76.84834158343668</v>
+        <v>145.8777136505296</v>
       </c>
       <c r="S31" t="n">
         <v>211.8403234308322</v>
@@ -24894,16 +24894,16 @@
         <v>224.9602743187949</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2809189508379</v>
+        <v>217.251546883745</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>183.1082712567351</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>217.4936262694981</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>164.9085844723417</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>313.7044695963876</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>356.4976430398875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24934,7 +24934,7 @@
         <v>413.7451262958156</v>
       </c>
       <c r="H32" t="n">
-        <v>323.522916215912</v>
+        <v>254.4935441488191</v>
       </c>
       <c r="I32" t="n">
         <v>150.4260830375935</v>
@@ -24973,19 +24973,19 @@
         <v>216.2774064515606</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2210440102909</v>
+        <v>182.191671943198</v>
       </c>
       <c r="V32" t="n">
         <v>258.722886403042</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>340.465719986293</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>317.2085665889607</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25043,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S33" t="n">
-        <v>87.17384362106401</v>
+        <v>156.2032156881569</v>
       </c>
       <c r="T33" t="n">
-        <v>127.7761880263094</v>
+        <v>136.0044891767069</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8865534313325</v>
+        <v>156.8571813642396</v>
       </c>
       <c r="V33" t="n">
-        <v>220.4137260962634</v>
+        <v>163.7712150823324</v>
       </c>
       <c r="W33" t="n">
         <v>182.6656110938267</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.8026081148444</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>79.58610095111945</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>76.39167595583834</v>
       </c>
       <c r="G34" t="n">
         <v>167.2922885881534</v>
@@ -25119,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R34" t="n">
-        <v>112.7328615738666</v>
+        <v>76.84834158343668</v>
       </c>
       <c r="S34" t="n">
-        <v>142.8109513637393</v>
+        <v>211.8403234308322</v>
       </c>
       <c r="T34" t="n">
         <v>224.9602743187949</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>225.7219274198956</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>149.5552812850019</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>322.5405271915031</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25171,10 +25171,10 @@
         <v>413.7451262958156</v>
       </c>
       <c r="H35" t="n">
-        <v>323.522916215912</v>
+        <v>275.0075159212884</v>
       </c>
       <c r="I35" t="n">
-        <v>150.4260830375935</v>
+        <v>101.9106827429698</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>3.510421890951747</v>
       </c>
       <c r="S35" t="n">
-        <v>125.0106036313801</v>
+        <v>173.5260039260038</v>
       </c>
       <c r="T35" t="n">
-        <v>167.7620061569369</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U35" t="n">
-        <v>208.4886794307864</v>
+        <v>251.2210440102909</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25235,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>124.1930986936921</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>98.92966527001511</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>114.9127158758965</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25250,10 +25250,10 @@
         <v>136.5101216886474</v>
       </c>
       <c r="H36" t="n">
-        <v>104.1865984690043</v>
+        <v>61.4542338894998</v>
       </c>
       <c r="I36" t="n">
-        <v>60.7029728719357</v>
+        <v>12.18757257731205</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25289,16 +25289,16 @@
         <v>196.8055600934023</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8865534313325</v>
+        <v>177.3711531367089</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>184.2851868548016</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>157.2575849088538</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.2922885881534</v>
+        <v>124.5599240086489</v>
       </c>
       <c r="H37" t="n">
         <v>156.0151763859972</v>
       </c>
       <c r="I37" t="n">
-        <v>85.92353764926932</v>
+        <v>134.438937943893</v>
       </c>
       <c r="J37" t="n">
         <v>43.96174265608267</v>
@@ -25362,22 +25362,22 @@
         <v>145.8777136505296</v>
       </c>
       <c r="S37" t="n">
-        <v>211.8403234308322</v>
+        <v>163.3249231362086</v>
       </c>
       <c r="T37" t="n">
-        <v>224.9602743187949</v>
+        <v>176.4448740241712</v>
       </c>
       <c r="U37" t="n">
         <v>237.7655186562142</v>
       </c>
       <c r="V37" t="n">
-        <v>203.6222430292044</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>182.9772908095327</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>316.7574914763839</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>365.229726001192</v>
+        <v>371.0127617163112</v>
       </c>
       <c r="H38" t="n">
-        <v>323.522916215912</v>
+        <v>275.0075159212884</v>
       </c>
       <c r="I38" t="n">
-        <v>150.4260830375935</v>
+        <v>101.9106827429698</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>9.293457606070902</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S38" t="n">
-        <v>125.0106036313801</v>
+        <v>173.5260039260038</v>
       </c>
       <c r="T38" t="n">
         <v>216.2774064515606</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>337.7225383614299</v>
       </c>
     </row>
     <row r="39">
@@ -25481,7 +25481,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>96.55381209876023</v>
       </c>
       <c r="G39" t="n">
         <v>136.5101216886474</v>
@@ -25490,7 +25490,7 @@
         <v>104.1865984690043</v>
       </c>
       <c r="I39" t="n">
-        <v>60.7029728719357</v>
+        <v>12.18757257731205</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,16 +25520,16 @@
         <v>48.41420986353356</v>
       </c>
       <c r="S39" t="n">
-        <v>107.6878153935333</v>
+        <v>156.2032156881569</v>
       </c>
       <c r="T39" t="n">
-        <v>148.2901597987787</v>
+        <v>154.0731955138978</v>
       </c>
       <c r="U39" t="n">
         <v>177.3711531367089</v>
       </c>
       <c r="V39" t="n">
-        <v>190.0682225699208</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25551,28 +25551,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>118.7314208040042</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>100.1000727235887</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>97.91856235194552</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>118.7768882935297</v>
+        <v>167.2922885881534</v>
       </c>
       <c r="H40" t="n">
-        <v>107.4997760913736</v>
+        <v>156.0151763859972</v>
       </c>
       <c r="I40" t="n">
-        <v>85.92353764926932</v>
+        <v>134.438937943893</v>
       </c>
       <c r="J40" t="n">
-        <v>1.229378076578186</v>
+        <v>43.96174265608267</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>27.65621884003237</v>
       </c>
       <c r="R40" t="n">
-        <v>145.8777136505296</v>
+        <v>103.1453490710251</v>
       </c>
       <c r="S40" t="n">
         <v>211.8403234308322</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>334.2184413688569</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>322.5405271915031</v>
       </c>
       <c r="D41" t="n">
-        <v>306.1676413260593</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>333.4149697776381</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25681,22 +25681,22 @@
         <v>173.5260039260038</v>
       </c>
       <c r="T41" t="n">
-        <v>216.2774064515606</v>
+        <v>167.7620061569369</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2210440102909</v>
+        <v>202.7056437156673</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>300.7255684227894</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>343.5055740765491</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,16 +25709,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>124.1930986936921</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>98.92966527001511</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>96.55381209876023</v>
       </c>
       <c r="G42" t="n">
         <v>136.5101216886474</v>
@@ -25763,13 +25763,13 @@
         <v>196.8055600934023</v>
       </c>
       <c r="U42" t="n">
-        <v>177.3711531367089</v>
+        <v>225.8865534313325</v>
       </c>
       <c r="V42" t="n">
-        <v>184.2851868548016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>203.179582866296</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>97.91856235194552</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R43" t="n">
-        <v>97.36231335590594</v>
+        <v>145.8777136505296</v>
       </c>
       <c r="S43" t="n">
         <v>163.3249231362086</v>
       </c>
       <c r="T43" t="n">
-        <v>209.8841285793228</v>
+        <v>176.4448740241712</v>
       </c>
       <c r="U43" t="n">
-        <v>237.7655186562142</v>
+        <v>286.2809189508379</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>182.9772908095327</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>334.2184413688569</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>316.7574914763839</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25882,7 +25882,7 @@
         <v>413.7451262958156</v>
       </c>
       <c r="H44" t="n">
-        <v>323.522916215912</v>
+        <v>275.0075159212884</v>
       </c>
       <c r="I44" t="n">
         <v>150.4260830375935</v>
@@ -25915,25 +25915,25 @@
         <v>52.02582218557539</v>
       </c>
       <c r="S44" t="n">
-        <v>173.5260039260038</v>
+        <v>125.0106036313801</v>
       </c>
       <c r="T44" t="n">
-        <v>216.2774064515606</v>
+        <v>173.5450418720561</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2210440102909</v>
+        <v>202.7056437156673</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>306.5086041379085</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>337.7225383614299</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25952,7 +25952,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>109.1296801607773</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -26000,13 +26000,13 @@
         <v>196.8055600934023</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8865534313325</v>
+        <v>177.3711531367089</v>
       </c>
       <c r="V45" t="n">
-        <v>184.2851868548016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>203.179582866296</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>157.2575849088538</v>
@@ -26025,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>118.7314208040042</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>105.8831084387079</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>97.91856235194552</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>118.7768882935297</v>
+        <v>167.2922885881534</v>
       </c>
       <c r="H46" t="n">
-        <v>156.0151763859972</v>
+        <v>113.2828118064927</v>
       </c>
       <c r="I46" t="n">
         <v>134.438937943893</v>
@@ -26070,7 +26070,7 @@
         <v>27.65621884003237</v>
       </c>
       <c r="R46" t="n">
-        <v>145.8777136505296</v>
+        <v>97.36231335590594</v>
       </c>
       <c r="S46" t="n">
         <v>211.8403234308322</v>
@@ -26079,7 +26079,7 @@
         <v>224.9602743187949</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2809189508379</v>
+        <v>237.7655186562142</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>170.0692530574711</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>286629.6704953311</v>
+        <v>286629.6704953312</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>286629.6704953311</v>
+        <v>286629.6704953312</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>286629.6704953312</v>
+        <v>286629.6704953313</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>286629.6704953311</v>
+        <v>286629.6704953313</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>303093.8366926407</v>
+        <v>303093.8366926408</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>286629.6704953311</v>
+        <v>286629.6704953312</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>286629.6704953311</v>
+        <v>286629.6704953312</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>286629.6704953311</v>
+        <v>286629.6704953312</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>634939.1625057047</v>
+      </c>
+      <c r="C2" t="n">
+        <v>634939.1625057047</v>
+      </c>
+      <c r="D2" t="n">
         <v>634939.1625057048</v>
       </c>
-      <c r="C2" t="n">
-        <v>634939.1625057046</v>
-      </c>
-      <c r="D2" t="n">
-        <v>634939.1625057047</v>
-      </c>
       <c r="E2" t="n">
-        <v>210170.8675896875</v>
+        <v>210170.8675896876</v>
       </c>
       <c r="F2" t="n">
         <v>210170.8675896875</v>
       </c>
       <c r="G2" t="n">
-        <v>210170.8675896875</v>
+        <v>210170.8675896874</v>
       </c>
       <c r="H2" t="n">
         <v>210170.8675896875</v>
@@ -26355,7 +26355,7 @@
         <v>210170.8675896875</v>
       </c>
       <c r="P2" t="n">
-        <v>210170.8675896874</v>
+        <v>210170.8675896875</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5455.095887706791</v>
+        <v>5455.095887706756</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6978.067993434963</v>
+        <v>6978.06799343499</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>22263.22985956556</v>
+        <v>22263.22985956558</v>
       </c>
       <c r="F4" t="n">
-        <v>22263.22985956556</v>
+        <v>22263.22985956558</v>
       </c>
       <c r="G4" t="n">
-        <v>22263.22985956556</v>
+        <v>22263.22985956558</v>
       </c>
       <c r="H4" t="n">
-        <v>22263.22985956557</v>
+        <v>22263.22985956558</v>
       </c>
       <c r="I4" t="n">
-        <v>27412.61278604729</v>
+        <v>27412.6127860473</v>
       </c>
       <c r="J4" t="n">
         <v>27412.61278604729</v>
@@ -26447,7 +26447,7 @@
         <v>27412.61278604729</v>
       </c>
       <c r="L4" t="n">
-        <v>27412.6127860473</v>
+        <v>27412.61278604729</v>
       </c>
       <c r="M4" t="n">
         <v>22263.22985956556</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133695.6025739736</v>
+        <v>133651.4667952923</v>
       </c>
       <c r="C6" t="n">
-        <v>133695.6025739733</v>
+        <v>133651.4667952923</v>
       </c>
       <c r="D6" t="n">
-        <v>133695.6025739734</v>
+        <v>133651.4667952925</v>
       </c>
       <c r="E6" t="n">
-        <v>-149257.4107372026</v>
+        <v>-163003.7495776908</v>
       </c>
       <c r="F6" t="n">
-        <v>176511.3651526443</v>
+        <v>162765.0263121562</v>
       </c>
       <c r="G6" t="n">
-        <v>176511.3651526444</v>
+        <v>162765.0263121561</v>
       </c>
       <c r="H6" t="n">
-        <v>176511.3651526443</v>
+        <v>162765.0263121562</v>
       </c>
       <c r="I6" t="n">
-        <v>173667.5786949076</v>
+        <v>160211.8186234588</v>
       </c>
       <c r="J6" t="n">
-        <v>179122.6745826144</v>
+        <v>165666.9145111656</v>
       </c>
       <c r="K6" t="n">
-        <v>179122.6745826144</v>
+        <v>165666.9145111656</v>
       </c>
       <c r="L6" t="n">
-        <v>179122.6745826144</v>
+        <v>165666.9145111656</v>
       </c>
       <c r="M6" t="n">
-        <v>169533.2971592094</v>
+        <v>155786.9583187212</v>
       </c>
       <c r="N6" t="n">
-        <v>176511.3651526443</v>
+        <v>162765.0263121562</v>
       </c>
       <c r="O6" t="n">
-        <v>176511.3651526444</v>
+        <v>162765.0263121562</v>
       </c>
       <c r="P6" t="n">
-        <v>176511.3651526443</v>
+        <v>162765.0263121562</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="F4" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="G4" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="H4" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="I4" t="n">
         <v>69.02937206709291</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>20.51397177246923</v>
+        <v>20.5139717724691</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>28.00142852215439</v>
+        <v>28.0014285221545</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31773,7 +31773,7 @@
         <v>273.5029010143232</v>
       </c>
       <c r="N11" t="n">
-        <v>277.9284638912146</v>
+        <v>277.9284638912147</v>
       </c>
       <c r="O11" t="n">
         <v>262.4399673291069</v>
@@ -31849,13 +31849,13 @@
         <v>180.9528200361945</v>
       </c>
       <c r="M12" t="n">
-        <v>190.649434216642</v>
+        <v>169.638600267073</v>
       </c>
       <c r="N12" t="n">
         <v>179.857112377957</v>
       </c>
       <c r="O12" t="n">
-        <v>170.1008107894989</v>
+        <v>191.1116447390682</v>
       </c>
       <c r="P12" t="n">
         <v>159.1419832084806</v>
@@ -32083,19 +32083,19 @@
         <v>134.575092925413</v>
       </c>
       <c r="L15" t="n">
-        <v>159.9419860866253</v>
+        <v>180.9528200361945</v>
       </c>
       <c r="M15" t="n">
-        <v>190.649434216642</v>
+        <v>190.6494342166421</v>
       </c>
       <c r="N15" t="n">
         <v>179.857112377957</v>
       </c>
       <c r="O15" t="n">
-        <v>191.1116447390681</v>
+        <v>191.1116447390682</v>
       </c>
       <c r="P15" t="n">
-        <v>159.1419832084806</v>
+        <v>138.1311492589115</v>
       </c>
       <c r="Q15" t="n">
         <v>106.3822012793335</v>
@@ -32320,16 +32320,16 @@
         <v>134.575092925413</v>
       </c>
       <c r="L18" t="n">
-        <v>159.9419860866253</v>
+        <v>180.9528200361945</v>
       </c>
       <c r="M18" t="n">
-        <v>190.649434216642</v>
+        <v>190.6494342166421</v>
       </c>
       <c r="N18" t="n">
-        <v>179.857112377957</v>
+        <v>158.846278428388</v>
       </c>
       <c r="O18" t="n">
-        <v>191.1116447390681</v>
+        <v>191.1116447390682</v>
       </c>
       <c r="P18" t="n">
         <v>159.1419832084806</v>
@@ -32560,13 +32560,13 @@
         <v>180.9528200361945</v>
       </c>
       <c r="M21" t="n">
-        <v>190.649434216642</v>
+        <v>190.6494342166421</v>
       </c>
       <c r="N21" t="n">
-        <v>179.857112377957</v>
+        <v>158.846278428388</v>
       </c>
       <c r="O21" t="n">
-        <v>170.100810789499</v>
+        <v>191.1116447390682</v>
       </c>
       <c r="P21" t="n">
         <v>159.1419832084806</v>
@@ -33745,13 +33745,13 @@
         <v>180.9528200361945</v>
       </c>
       <c r="M36" t="n">
-        <v>169.6386002670728</v>
+        <v>190.649434216642</v>
       </c>
       <c r="N36" t="n">
         <v>179.857112377957</v>
       </c>
       <c r="O36" t="n">
-        <v>191.1116447390681</v>
+        <v>170.1008107894989</v>
       </c>
       <c r="P36" t="n">
         <v>159.1419832084806</v>
@@ -33982,13 +33982,13 @@
         <v>180.9528200361945</v>
       </c>
       <c r="M39" t="n">
-        <v>190.649434216642</v>
+        <v>169.6386002670728</v>
       </c>
       <c r="N39" t="n">
         <v>179.857112377957</v>
       </c>
       <c r="O39" t="n">
-        <v>170.1008107894989</v>
+        <v>191.1116447390681</v>
       </c>
       <c r="P39" t="n">
         <v>159.1419832084806</v>
@@ -34216,7 +34216,7 @@
         <v>134.575092925413</v>
       </c>
       <c r="L42" t="n">
-        <v>159.9419860866253</v>
+        <v>180.9528200361945</v>
       </c>
       <c r="M42" t="n">
         <v>190.649434216642</v>
@@ -34225,7 +34225,7 @@
         <v>179.857112377957</v>
       </c>
       <c r="O42" t="n">
-        <v>191.1116447390681</v>
+        <v>170.1008107894989</v>
       </c>
       <c r="P42" t="n">
         <v>159.1419832084806</v>
@@ -34453,7 +34453,7 @@
         <v>134.575092925413</v>
       </c>
       <c r="L45" t="n">
-        <v>159.9419860866253</v>
+        <v>180.9528200361945</v>
       </c>
       <c r="M45" t="n">
         <v>190.649434216642</v>
@@ -34462,7 +34462,7 @@
         <v>179.857112377957</v>
       </c>
       <c r="O45" t="n">
-        <v>191.1116447390681</v>
+        <v>170.1008107894989</v>
       </c>
       <c r="P45" t="n">
         <v>159.1419832084806</v>
@@ -35415,22 +35415,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>10.03631752276405</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="M11" t="n">
-        <v>43.15666778705045</v>
+        <v>46.55518210090156</v>
       </c>
       <c r="N11" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="O11" t="n">
-        <v>41.87759708571061</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M12" t="n">
-        <v>48.51540029462364</v>
+        <v>27.50456634505465</v>
       </c>
       <c r="N12" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="O12" t="n">
-        <v>27.50456634505445</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="P12" t="n">
         <v>25.16757579415039</v>
@@ -35570,19 +35570,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>48.51540029462364</v>
+        <v>46.55518210090156</v>
       </c>
       <c r="M13" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="N13" t="n">
-        <v>46.55518210090149</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="M14" t="n">
         <v>43.15666778705045</v>
       </c>
       <c r="N14" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="O14" t="n">
-        <v>32.34175590742021</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="P14" t="n">
-        <v>19.57215870105446</v>
+        <v>3.398514313851126</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>21.38760630675109</v>
+        <v>42.39844025632027</v>
       </c>
       <c r="M15" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="N15" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="O15" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="P15" t="n">
-        <v>25.16757579415039</v>
+        <v>4.156741844581281</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35810,19 +35810,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>46.55518210090156</v>
       </c>
       <c r="M16" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="N16" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="O16" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="P16" t="n">
-        <v>46.55518210090149</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="L17" t="n">
-        <v>19.5721587010545</v>
+        <v>10.03631752276405</v>
       </c>
       <c r="M17" t="n">
         <v>43.15666778705045</v>
       </c>
       <c r="N17" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O17" t="n">
-        <v>32.34175590742021</v>
+        <v>41.87759708571092</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>21.38760630675112</v>
+        <v>42.39844025632027</v>
       </c>
       <c r="M18" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="N18" t="n">
-        <v>48.51540029462367</v>
+        <v>27.50456634505465</v>
       </c>
       <c r="O18" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="P18" t="n">
         <v>25.16757579415039</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="M19" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="N19" t="n">
-        <v>48.51540029462367</v>
+        <v>46.55518210090158</v>
       </c>
       <c r="O19" t="n">
-        <v>46.5551821009015</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>10.03631752276405</v>
+        <v>46.55518210090156</v>
       </c>
       <c r="M20" t="n">
-        <v>43.15666778705045</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="N20" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="O20" t="n">
-        <v>32.34175590742021</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.535841178290491</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M21" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="N21" t="n">
-        <v>48.51540029462367</v>
+        <v>27.50456634505465</v>
       </c>
       <c r="O21" t="n">
-        <v>27.5045663450545</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="P21" t="n">
         <v>25.16757579415039</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="M22" t="n">
-        <v>46.5551821009015</v>
+        <v>46.55518210090158</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462375</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>10.03631752276405</v>
       </c>
       <c r="M23" t="n">
-        <v>69.02937206709291</v>
+        <v>44.3762048713136</v>
       </c>
       <c r="N23" t="n">
         <v>48.51540029462365</v>
@@ -36375,10 +36375,10 @@
         <v>32.34175590742021</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.37620487131355</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>58.90567221505084</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="M25" t="n">
-        <v>69.02937206709291</v>
+        <v>7.334634313977776</v>
       </c>
       <c r="N25" t="n">
         <v>69.02937206709291</v>
@@ -36533,7 +36533,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="P25" t="n">
-        <v>66.24030652902856</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>69.02937206709291</v>
+        <v>11.2558546070272</v>
       </c>
       <c r="L26" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="M26" t="n">
-        <v>54.41252239407763</v>
+        <v>43.15666778705045</v>
       </c>
       <c r="N26" t="n">
         <v>48.51540029462365</v>
@@ -36615,7 +36615,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>42.39844025632027</v>
+        <v>54.41236343662987</v>
       </c>
       <c r="M27" t="n">
         <v>69.02937206709291</v>
@@ -36694,7 +36694,7 @@
         <v>25.16757579415039</v>
       </c>
       <c r="Q27" t="n">
-        <v>12.01392318030959</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>58.90567221505084</v>
       </c>
       <c r="L28" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="N28" t="n">
-        <v>66.24030652902859</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="O28" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>7.334634313977776</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="L29" t="n">
         <v>10.03631752276405</v>
       </c>
       <c r="M29" t="n">
-        <v>69.02937206709291</v>
+        <v>43.15666778705045</v>
       </c>
       <c r="N29" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O29" t="n">
+        <v>33.56129299168333</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="P29" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>7.688588711640866</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>42.39844025632027</v>
+        <v>54.41236343662987</v>
       </c>
       <c r="M30" t="n">
         <v>69.02937206709291</v>
@@ -36931,7 +36931,7 @@
         <v>25.16757579415039</v>
       </c>
       <c r="Q30" t="n">
-        <v>12.01392318030959</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>58.90567221505084</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>7.334634313977761</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="N31" t="n">
-        <v>69.02937206709291</v>
+        <v>66.2403065290286</v>
       </c>
       <c r="O31" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="L32" t="n">
-        <v>10.03631752276405</v>
+        <v>11.25585460702719</v>
       </c>
       <c r="M32" t="n">
-        <v>69.02937206709291</v>
+        <v>43.15666778705045</v>
       </c>
       <c r="N32" t="n">
-        <v>69.02937206709291</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O32" t="n">
-        <v>56.20398900626453</v>
+        <v>32.34175590742021</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37235,7 +37235,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>66.2403065290286</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="N34" t="n">
         <v>69.02937206709291</v>
@@ -37244,7 +37244,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="P34" t="n">
-        <v>69.02937206709291</v>
+        <v>66.24030652902856</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="K35" t="n">
-        <v>9.53584117829044</v>
-      </c>
-      <c r="L35" t="n">
-        <v>10.03631752276405</v>
       </c>
       <c r="M35" t="n">
         <v>43.15666778705045</v>
@@ -37323,7 +37323,7 @@
         <v>32.34175590742021</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>19.57215870105448</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M36" t="n">
-        <v>27.50456634505448</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N36" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O36" t="n">
-        <v>48.51540029462365</v>
+        <v>27.50456634505447</v>
       </c>
       <c r="P36" t="n">
         <v>25.16757579415039</v>
@@ -37469,10 +37469,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>46.5551821009015</v>
-      </c>
-      <c r="M37" t="n">
-        <v>48.51540029462365</v>
       </c>
       <c r="N37" t="n">
         <v>48.51540029462365</v>
@@ -37481,7 +37481,7 @@
         <v>48.51540029462365</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>10.03631752276405</v>
-      </c>
       <c r="M38" t="n">
-        <v>43.15666778705045</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="N38" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O38" t="n">
-        <v>41.87759708571063</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M39" t="n">
-        <v>48.51540029462365</v>
+        <v>27.50456634505448</v>
       </c>
       <c r="N39" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O39" t="n">
-        <v>27.50456634505447</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P39" t="n">
         <v>25.16757579415039</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>46.5551821009015</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N40" t="n">
         <v>48.51540029462365</v>
@@ -37718,7 +37718,7 @@
         <v>48.51540029462365</v>
       </c>
       <c r="P40" t="n">
-        <v>48.51540029462365</v>
+        <v>46.55518210090149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37785,22 +37785,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>10.03631752276405</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="M41" t="n">
-        <v>43.15666778705045</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N41" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O41" t="n">
-        <v>32.34175590742021</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P41" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.535841178290433</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>21.38760630675111</v>
+        <v>42.39844025632027</v>
       </c>
       <c r="M42" t="n">
         <v>48.51540029462365</v>
@@ -37873,7 +37873,7 @@
         <v>48.51540029462365</v>
       </c>
       <c r="O42" t="n">
-        <v>48.51540029462365</v>
+        <v>27.50456634505447</v>
       </c>
       <c r="P42" t="n">
         <v>25.16757579415039</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>46.5551821009015</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N43" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O43" t="n">
-        <v>48.51540029462365</v>
+        <v>46.55518210090149</v>
       </c>
       <c r="P43" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,10 +38022,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>10.03631752276405</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="M44" t="n">
-        <v>48.51540029462365</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="N44" t="n">
         <v>48.51540029462365</v>
@@ -38034,7 +38034,7 @@
         <v>48.51540029462365</v>
       </c>
       <c r="P44" t="n">
-        <v>36.51886457813744</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>21.38760630675111</v>
+        <v>42.39844025632027</v>
       </c>
       <c r="M45" t="n">
         <v>48.51540029462365</v>
@@ -38110,7 +38110,7 @@
         <v>48.51540029462365</v>
       </c>
       <c r="O45" t="n">
-        <v>48.51540029462365</v>
+        <v>27.50456634505447</v>
       </c>
       <c r="P45" t="n">
         <v>25.16757579415039</v>
@@ -38180,19 +38180,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="M46" t="n">
-        <v>46.5551821009015</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N46" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O46" t="n">
-        <v>48.51540029462365</v>
+        <v>46.55518210090149</v>
       </c>
       <c r="P46" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
